--- a/master_codelist_BNF_0301_0302_COPDrx_inhalers_clinicianinitials.xlsx
+++ b/master_codelist_BNF_0301_0302_COPDrx_inhalers_clinicianinitials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Group_work\Emily\Product_browsing_study_data\Codelists\Github_publication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B19F8F-8DBE-49C1-8D05-D942F33100D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E968AFA8-DDB2-4387-BA34-251E97149397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="15" windowWidth="27135" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9717" uniqueCount="1660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9760" uniqueCount="1661">
   <si>
     <t>prodcodeid</t>
   </si>
@@ -5000,9 +5000,6 @@
     <t>paeds_new</t>
   </si>
   <si>
-    <t>(mapped product codes not available in CPRD code browser)</t>
-  </si>
-  <si>
     <t>SearchA_gold</t>
   </si>
   <si>
@@ -5013,6 +5010,12 @@
   </si>
   <si>
     <t>SearchB_drugsubstancename</t>
+  </si>
+  <si>
+    <t>≤100</t>
+  </si>
+  <si>
+    <t>(mapped product codes from previous codelist)</t>
   </si>
 </sst>
 </file>
@@ -5149,7 +5152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -5189,6 +5192,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5506,9 +5515,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD21" sqref="AD21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5516,7 +5525,7 @@
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="9" width="6.140625" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11" style="28" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" style="5" customWidth="1"/>
     <col min="12" max="18" width="10.7109375" customWidth="1"/>
     <col min="19" max="19" width="10.7109375" style="12" customWidth="1"/>
@@ -5554,7 +5563,7 @@
       <c r="I1" t="s">
         <v>1622</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="28" t="s">
         <v>1627</v>
       </c>
       <c r="K1" s="6" t="s">
@@ -5600,16 +5609,16 @@
         <v>1649</v>
       </c>
       <c r="Y1" s="10" t="s">
+        <v>1656</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>1658</v>
+      </c>
+      <c r="AB1" s="4" t="s">
         <v>1657</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>1656</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>1659</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>1658</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -5640,7 +5649,7 @@
       <c r="I2" t="s">
         <v>933</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="28">
         <v>1000</v>
       </c>
       <c r="K2" s="5" t="s">
@@ -5722,8 +5731,8 @@
       <c r="I3" t="s">
         <v>933</v>
       </c>
-      <c r="J3">
-        <v>80</v>
+      <c r="J3" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>1628</v>
@@ -5804,7 +5813,7 @@
       <c r="I4" t="s">
         <v>1623</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="28">
         <v>3000</v>
       </c>
       <c r="K4" s="5" t="s">
@@ -5888,7 +5897,7 @@
       <c r="I5" t="s">
         <v>933</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="28">
         <v>20000</v>
       </c>
       <c r="K5" s="5" t="s">
@@ -5970,7 +5979,7 @@
       <c r="I6" t="s">
         <v>1623</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="28">
         <v>300000</v>
       </c>
       <c r="K6" s="5" t="s">
@@ -6054,7 +6063,7 @@
       <c r="I7" t="s">
         <v>933</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="28">
         <v>80000</v>
       </c>
       <c r="K7" s="5" t="s">
@@ -6136,7 +6145,7 @@
       <c r="I8" t="s">
         <v>1623</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="28">
         <v>100000</v>
       </c>
       <c r="K8" s="5" t="s">
@@ -6220,7 +6229,7 @@
       <c r="I9" t="s">
         <v>933</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="28">
         <v>600000</v>
       </c>
       <c r="K9" s="5" t="s">
@@ -6302,7 +6311,7 @@
       <c r="I10" t="s">
         <v>1623</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="28">
         <v>700000</v>
       </c>
       <c r="K10" s="5" t="s">
@@ -6386,7 +6395,7 @@
       <c r="I11" t="s">
         <v>933</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="28">
         <v>300</v>
       </c>
       <c r="K11" s="5" t="s">
@@ -6466,7 +6475,7 @@
       <c r="I12" t="s">
         <v>1623</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="28">
         <v>900000</v>
       </c>
       <c r="K12" s="5" t="s">
@@ -6550,7 +6559,7 @@
       <c r="I13" t="s">
         <v>933</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="28">
         <v>60000</v>
       </c>
       <c r="K13" s="5" t="s">
@@ -6632,7 +6641,7 @@
       <c r="I14" t="s">
         <v>1623</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="28">
         <v>200000</v>
       </c>
       <c r="K14" s="5" t="s">
@@ -6716,7 +6725,7 @@
       <c r="I15" t="s">
         <v>1623</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="28">
         <v>3000000</v>
       </c>
       <c r="K15" s="5" t="s">
@@ -6800,7 +6809,7 @@
       <c r="I16" t="s">
         <v>1623</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="28">
         <v>2000000</v>
       </c>
       <c r="K16" s="5" t="s">
@@ -6884,7 +6893,7 @@
       <c r="I17" t="s">
         <v>1623</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="28">
         <v>50000</v>
       </c>
       <c r="K17" s="5" t="s">
@@ -6968,7 +6977,7 @@
       <c r="I18" t="s">
         <v>1623</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="28">
         <v>200000</v>
       </c>
       <c r="K18" s="5" t="s">
@@ -7052,7 +7061,7 @@
       <c r="I19" t="s">
         <v>1623</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="28">
         <v>5000</v>
       </c>
       <c r="K19" s="5" t="s">
@@ -7136,7 +7145,7 @@
       <c r="I20" t="s">
         <v>1623</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="28">
         <v>30000</v>
       </c>
       <c r="K20" s="5" t="s">
@@ -7220,7 +7229,7 @@
       <c r="I21" t="s">
         <v>1623</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="28">
         <v>1000</v>
       </c>
       <c r="K21" s="5" t="s">
@@ -7304,8 +7313,8 @@
       <c r="I22" t="s">
         <v>933</v>
       </c>
-      <c r="J22">
-        <v>50</v>
+      <c r="J22" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>1628</v>
@@ -7386,8 +7395,8 @@
       <c r="I23" t="s">
         <v>933</v>
       </c>
-      <c r="J23">
-        <v>700</v>
+      <c r="J23" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>1628</v>
@@ -7468,7 +7477,7 @@
       <c r="I24" t="s">
         <v>1623</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="28">
         <v>10000</v>
       </c>
       <c r="K24" s="5" t="s">
@@ -7552,7 +7561,7 @@
       <c r="I25" t="s">
         <v>1623</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="28">
         <v>50000</v>
       </c>
       <c r="K25" s="5" t="s">
@@ -7636,7 +7645,7 @@
       <c r="I26" t="s">
         <v>933</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="28">
         <v>80000</v>
       </c>
       <c r="K26" s="5" t="s">
@@ -7718,7 +7727,7 @@
       <c r="I27" t="s">
         <v>933</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="28">
         <v>20000</v>
       </c>
       <c r="K27" s="5" t="s">
@@ -7798,7 +7807,7 @@
       <c r="I28" t="s">
         <v>933</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="28">
         <v>3000</v>
       </c>
       <c r="K28" s="5" t="s">
@@ -7878,7 +7887,7 @@
       <c r="I29" t="s">
         <v>1623</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="28">
         <v>90000</v>
       </c>
       <c r="K29" s="5" t="s">
@@ -7962,7 +7971,7 @@
       <c r="I30" t="s">
         <v>1623</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="28">
         <v>50000</v>
       </c>
       <c r="K30" s="5" t="s">
@@ -8046,7 +8055,7 @@
       <c r="I31" t="s">
         <v>1623</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="28">
         <v>300000</v>
       </c>
       <c r="K31" s="5" t="s">
@@ -8130,7 +8139,7 @@
       <c r="I32" t="s">
         <v>1623</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="28">
         <v>50000</v>
       </c>
       <c r="K32" s="5" t="s">
@@ -8214,7 +8223,7 @@
       <c r="I33" t="s">
         <v>1623</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="28">
         <v>30000</v>
       </c>
       <c r="K33" s="5" t="s">
@@ -8298,7 +8307,7 @@
       <c r="I34" s="7" t="s">
         <v>1623</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="29">
         <v>40000</v>
       </c>
       <c r="K34" s="22">
@@ -8382,7 +8391,7 @@
       <c r="I35" t="s">
         <v>933</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="28">
         <v>600</v>
       </c>
       <c r="K35" s="5" t="s">
@@ -8462,7 +8471,7 @@
       <c r="I36" t="s">
         <v>933</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="28">
         <v>90000</v>
       </c>
       <c r="K36" s="5" t="s">
@@ -8542,7 +8551,7 @@
       <c r="I37" t="s">
         <v>933</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="28">
         <v>4000000</v>
       </c>
       <c r="K37" s="5" t="s">
@@ -8622,7 +8631,7 @@
       <c r="I38" t="s">
         <v>933</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="28">
         <v>200000</v>
       </c>
       <c r="K38" s="5" t="s">
@@ -8702,7 +8711,7 @@
       <c r="I39" t="s">
         <v>933</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="28">
         <v>700000</v>
       </c>
       <c r="K39" s="5" t="s">
@@ -8784,7 +8793,7 @@
       <c r="I40" t="s">
         <v>1623</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="28">
         <v>1000000</v>
       </c>
       <c r="K40" s="5" t="s">
@@ -8868,7 +8877,7 @@
       <c r="I41" t="s">
         <v>933</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="28">
         <v>300000</v>
       </c>
       <c r="K41" s="5" t="s">
@@ -8950,7 +8959,7 @@
       <c r="I42" t="s">
         <v>1623</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="28">
         <v>30000000</v>
       </c>
       <c r="K42" s="5" t="s">
@@ -9034,7 +9043,7 @@
       <c r="I43" t="s">
         <v>933</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="28">
         <v>100000</v>
       </c>
       <c r="K43" s="5" t="s">
@@ -9116,7 +9125,7 @@
       <c r="I44" t="s">
         <v>933</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="28">
         <v>400000</v>
       </c>
       <c r="K44" s="5" t="s">
@@ -9198,7 +9207,7 @@
       <c r="I45" t="s">
         <v>933</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="28">
         <v>100000</v>
       </c>
       <c r="K45" s="5" t="s">
@@ -9280,7 +9289,7 @@
       <c r="I46" t="s">
         <v>933</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="28">
         <v>300000</v>
       </c>
       <c r="K46" s="5" t="s">
@@ -9362,7 +9371,7 @@
       <c r="I47" t="s">
         <v>933</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="28">
         <v>20000</v>
       </c>
       <c r="K47" s="5" t="s">
@@ -9442,7 +9451,7 @@
       <c r="I48" t="s">
         <v>933</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="28">
         <v>40000</v>
       </c>
       <c r="K48" s="5" t="s">
@@ -9522,7 +9531,7 @@
       <c r="I49" t="s">
         <v>1623</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="28">
         <v>4000000</v>
       </c>
       <c r="K49" s="5" t="s">
@@ -9606,7 +9615,7 @@
       <c r="I50" t="s">
         <v>933</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="28">
         <v>10000</v>
       </c>
       <c r="K50" s="5" t="s">
@@ -9688,7 +9697,7 @@
       <c r="I51" t="s">
         <v>933</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="28">
         <v>600000</v>
       </c>
       <c r="K51" s="5" t="s">
@@ -9770,7 +9779,7 @@
       <c r="I52" t="s">
         <v>933</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="28">
         <v>9000</v>
       </c>
       <c r="K52" s="5" t="s">
@@ -9852,7 +9861,7 @@
       <c r="I53" t="s">
         <v>933</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="28">
         <v>2000</v>
       </c>
       <c r="K53" s="5" t="s">
@@ -9932,7 +9941,7 @@
       <c r="I54" t="s">
         <v>933</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="28">
         <v>400</v>
       </c>
       <c r="K54" s="5" t="s">
@@ -10012,7 +10021,7 @@
       <c r="I55" t="s">
         <v>933</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="28">
         <v>9000</v>
       </c>
       <c r="K55" s="5" t="s">
@@ -10092,7 +10101,7 @@
       <c r="I56" t="s">
         <v>933</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="28">
         <v>20000</v>
       </c>
       <c r="K56" s="5" t="s">
@@ -10172,7 +10181,7 @@
       <c r="I57" t="s">
         <v>933</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="28">
         <v>400000</v>
       </c>
       <c r="K57" s="5" t="s">
@@ -10252,7 +10261,7 @@
       <c r="I58" t="s">
         <v>933</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="28">
         <v>100000</v>
       </c>
       <c r="K58" s="5" t="s">
@@ -10332,7 +10341,7 @@
       <c r="I59" t="s">
         <v>933</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="28">
         <v>4000</v>
       </c>
       <c r="K59" s="5" t="s">
@@ -10412,7 +10421,7 @@
       <c r="I60" t="s">
         <v>933</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="28">
         <v>2000</v>
       </c>
       <c r="K60" s="5" t="s">
@@ -10492,7 +10501,7 @@
       <c r="I61" t="s">
         <v>933</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="28">
         <v>900</v>
       </c>
       <c r="K61" s="5" t="s">
@@ -10572,7 +10581,7 @@
       <c r="I62" t="s">
         <v>933</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="28">
         <v>9000</v>
       </c>
       <c r="K62" s="5" t="s">
@@ -10652,7 +10661,7 @@
       <c r="I63" t="s">
         <v>933</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="28">
         <v>6000</v>
       </c>
       <c r="K63" s="5" t="s">
@@ -10732,7 +10741,7 @@
       <c r="I64" t="s">
         <v>933</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="28">
         <v>90000</v>
       </c>
       <c r="K64" s="5" t="s">
@@ -10812,7 +10821,7 @@
       <c r="I65" t="s">
         <v>933</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="28">
         <v>4000</v>
       </c>
       <c r="K65" s="5" t="s">
@@ -10892,7 +10901,7 @@
       <c r="I66" t="s">
         <v>933</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="28">
         <v>2000</v>
       </c>
       <c r="K66" s="5" t="s">
@@ -10972,8 +10981,8 @@
       <c r="I67" t="s">
         <v>933</v>
       </c>
-      <c r="J67">
-        <v>90</v>
+      <c r="J67" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>933</v>
@@ -11052,7 +11061,7 @@
       <c r="I68" t="s">
         <v>933</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="28">
         <v>50000</v>
       </c>
       <c r="K68" s="5" t="s">
@@ -11132,8 +11141,8 @@
       <c r="I69" t="s">
         <v>933</v>
       </c>
-      <c r="J69">
-        <v>40</v>
+      <c r="J69" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>933</v>
@@ -11212,7 +11221,7 @@
       <c r="I70" t="s">
         <v>933</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="28">
         <v>3000000</v>
       </c>
       <c r="K70" s="5" t="s">
@@ -11292,8 +11301,8 @@
       <c r="I71" t="s">
         <v>933</v>
       </c>
-      <c r="J71">
-        <v>100</v>
+      <c r="J71" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>933</v>
@@ -11372,7 +11381,7 @@
       <c r="I72" t="s">
         <v>1623</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="28">
         <v>200000</v>
       </c>
       <c r="K72" s="5" t="s">
@@ -11456,7 +11465,7 @@
       <c r="I73" t="s">
         <v>933</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="28">
         <v>200000</v>
       </c>
       <c r="K73" s="5" t="s">
@@ -11538,7 +11547,7 @@
       <c r="I74" t="s">
         <v>933</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="28">
         <v>40000</v>
       </c>
       <c r="K74" s="5" t="s">
@@ -11620,7 +11629,7 @@
       <c r="I75" t="s">
         <v>933</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="28">
         <v>300000</v>
       </c>
       <c r="K75" s="5" t="s">
@@ -11702,7 +11711,7 @@
       <c r="I76" t="s">
         <v>933</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="28">
         <v>7000</v>
       </c>
       <c r="K76" s="5" t="s">
@@ -11784,7 +11793,7 @@
       <c r="I77" t="s">
         <v>1623</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="28">
         <v>1000000</v>
       </c>
       <c r="K77" s="5" t="s">
@@ -11868,7 +11877,7 @@
       <c r="I78" t="s">
         <v>933</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="28">
         <v>70000</v>
       </c>
       <c r="K78" s="5" t="s">
@@ -11950,7 +11959,7 @@
       <c r="I79" t="s">
         <v>933</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="28">
         <v>60000</v>
       </c>
       <c r="K79" s="5" t="s">
@@ -12032,7 +12041,7 @@
       <c r="I80" t="s">
         <v>933</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="28">
         <v>100000</v>
       </c>
       <c r="K80" s="5" t="s">
@@ -12114,7 +12123,7 @@
       <c r="I81" t="s">
         <v>933</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="28">
         <v>3000</v>
       </c>
       <c r="K81" s="5" t="s">
@@ -12196,7 +12205,7 @@
       <c r="I82" t="s">
         <v>1623</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="28">
         <v>60000000</v>
       </c>
       <c r="K82" s="5" t="s">
@@ -12280,7 +12289,7 @@
       <c r="I83" t="s">
         <v>1623</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="28">
         <v>8000000</v>
       </c>
       <c r="K83" s="5" t="s">
@@ -12364,7 +12373,7 @@
       <c r="I84" t="s">
         <v>1623</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="28">
         <v>100000</v>
       </c>
       <c r="K84" s="5" t="s">
@@ -12448,7 +12457,7 @@
       <c r="I85" t="s">
         <v>1623</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="28">
         <v>3000</v>
       </c>
       <c r="K85" s="5" t="s">
@@ -12532,7 +12541,7 @@
       <c r="I86" t="s">
         <v>1623</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="28">
         <v>6000</v>
       </c>
       <c r="K86" s="5" t="s">
@@ -12616,7 +12625,7 @@
       <c r="I87" t="s">
         <v>1623</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="28">
         <v>5000000</v>
       </c>
       <c r="K87" s="5" t="s">
@@ -12700,7 +12709,7 @@
       <c r="I88" t="s">
         <v>1623</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="28">
         <v>1000000</v>
       </c>
       <c r="K88" s="5" t="s">
@@ -12784,7 +12793,7 @@
       <c r="I89" t="s">
         <v>1623</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="28">
         <v>4000</v>
       </c>
       <c r="K89" s="5" t="s">
@@ -12868,7 +12877,7 @@
       <c r="I90" t="s">
         <v>1623</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="28">
         <v>4000</v>
       </c>
       <c r="K90" s="5" t="s">
@@ -12952,7 +12961,7 @@
       <c r="I91" t="s">
         <v>933</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="28">
         <v>200</v>
       </c>
       <c r="K91" s="5" t="s">
@@ -13032,7 +13041,7 @@
       <c r="I92" t="s">
         <v>933</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="28">
         <v>60000</v>
       </c>
       <c r="K92" s="5" t="s">
@@ -13112,7 +13121,7 @@
       <c r="I93" t="s">
         <v>1623</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="28">
         <v>100000</v>
       </c>
       <c r="K93" s="5" t="s">
@@ -13196,7 +13205,7 @@
       <c r="I94" t="s">
         <v>933</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="28">
         <v>100000</v>
       </c>
       <c r="K94" s="5" t="s">
@@ -13276,7 +13285,7 @@
       <c r="I95" t="s">
         <v>933</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="28">
         <v>200000</v>
       </c>
       <c r="K95" s="5" t="s">
@@ -13356,7 +13365,7 @@
       <c r="I96" t="s">
         <v>1623</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="28">
         <v>1000000</v>
       </c>
       <c r="K96" s="5" t="s">
@@ -13440,7 +13449,7 @@
       <c r="I97" t="s">
         <v>1623</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="28">
         <v>2000000</v>
       </c>
       <c r="K97" s="5" t="s">
@@ -13524,7 +13533,7 @@
       <c r="I98" t="s">
         <v>1623</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="28">
         <v>70000</v>
       </c>
       <c r="K98" s="5" t="s">
@@ -13608,7 +13617,7 @@
       <c r="I99" t="s">
         <v>933</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="28">
         <v>200</v>
       </c>
       <c r="K99" s="5" t="s">
@@ -13688,7 +13697,7 @@
       <c r="I100" t="s">
         <v>933</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="28">
         <v>400</v>
       </c>
       <c r="K100" s="5" t="s">
@@ -13768,7 +13777,7 @@
       <c r="I101" t="s">
         <v>933</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="28">
         <v>30000</v>
       </c>
       <c r="K101" s="5" t="s">
@@ -13848,8 +13857,8 @@
       <c r="I102" t="s">
         <v>933</v>
       </c>
-      <c r="J102">
-        <v>20</v>
+      <c r="J102" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K102" s="5" t="s">
         <v>933</v>
@@ -13928,8 +13937,8 @@
       <c r="I103" t="s">
         <v>933</v>
       </c>
-      <c r="J103">
-        <v>7</v>
+      <c r="J103" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K103" s="5" t="s">
         <v>933</v>
@@ -14008,7 +14017,7 @@
       <c r="I104" t="s">
         <v>933</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="28">
         <v>4000</v>
       </c>
       <c r="K104" s="5" t="s">
@@ -14088,7 +14097,7 @@
       <c r="I105" t="s">
         <v>933</v>
       </c>
-      <c r="J105">
+      <c r="J105" s="28">
         <v>10000</v>
       </c>
       <c r="K105" s="5" t="s">
@@ -14170,7 +14179,7 @@
       <c r="I106" t="s">
         <v>1623</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="28">
         <v>100000</v>
       </c>
       <c r="K106" s="5" t="s">
@@ -14254,7 +14263,7 @@
       <c r="I107" t="s">
         <v>1623</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="28">
         <v>600000</v>
       </c>
       <c r="K107" s="5" t="s">
@@ -14338,8 +14347,8 @@
       <c r="I108" t="s">
         <v>933</v>
       </c>
-      <c r="J108">
-        <v>6</v>
+      <c r="J108" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K108" s="5" t="s">
         <v>933</v>
@@ -14418,7 +14427,7 @@
       <c r="I109" t="s">
         <v>933</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="28">
         <v>8000</v>
       </c>
       <c r="K109" s="5" t="s">
@@ -14498,7 +14507,7 @@
       <c r="I110" t="s">
         <v>933</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="28">
         <v>60000</v>
       </c>
       <c r="K110" s="5" t="s">
@@ -14578,7 +14587,7 @@
       <c r="I111" t="s">
         <v>933</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="28">
         <v>300</v>
       </c>
       <c r="K111" s="5" t="s">
@@ -14658,7 +14667,7 @@
       <c r="I112" t="s">
         <v>1623</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="28">
         <v>2000000</v>
       </c>
       <c r="K112" s="5" t="s">
@@ -14742,7 +14751,7 @@
       <c r="I113" t="s">
         <v>933</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="28">
         <v>20000</v>
       </c>
       <c r="K113" s="5" t="s">
@@ -14824,7 +14833,7 @@
       <c r="I114" t="s">
         <v>933</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="28">
         <v>400000</v>
       </c>
       <c r="K114" s="5" t="s">
@@ -14906,8 +14915,8 @@
       <c r="I115" t="s">
         <v>933</v>
       </c>
-      <c r="J115">
-        <v>100</v>
+      <c r="J115" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K115" s="5" t="s">
         <v>933</v>
@@ -14986,7 +14995,7 @@
       <c r="I116" t="s">
         <v>933</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="28">
         <v>300</v>
       </c>
       <c r="K116" s="5" t="s">
@@ -15066,7 +15075,7 @@
       <c r="I117" t="s">
         <v>933</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="28">
         <v>6000</v>
       </c>
       <c r="K117" s="5" t="s">
@@ -15146,7 +15155,7 @@
       <c r="I118" t="s">
         <v>933</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="28">
         <v>30000</v>
       </c>
       <c r="K118" s="5" t="s">
@@ -15228,8 +15237,8 @@
       <c r="I119" t="s">
         <v>933</v>
       </c>
-      <c r="J119">
-        <v>40</v>
+      <c r="J119" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K119" s="5" t="s">
         <v>933</v>
@@ -15310,7 +15319,7 @@
       <c r="I120" t="s">
         <v>933</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="28">
         <v>800</v>
       </c>
       <c r="K120" s="5" t="s">
@@ -15390,7 +15399,7 @@
       <c r="I121" t="s">
         <v>1623</v>
       </c>
-      <c r="J121">
+      <c r="J121" s="28">
         <v>200000</v>
       </c>
       <c r="K121" s="5" t="s">
@@ -15474,7 +15483,7 @@
       <c r="I122" t="s">
         <v>1623</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="28">
         <v>400000</v>
       </c>
       <c r="K122" s="5" t="s">
@@ -15558,7 +15567,7 @@
       <c r="I123" t="s">
         <v>1623</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="28">
         <v>500000</v>
       </c>
       <c r="K123" s="5" t="s">
@@ -15642,7 +15651,7 @@
       <c r="I124" t="s">
         <v>933</v>
       </c>
-      <c r="J124">
+      <c r="J124" s="28">
         <v>1000</v>
       </c>
       <c r="K124" s="5" t="s">
@@ -15724,7 +15733,7 @@
       <c r="I125" t="s">
         <v>933</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="28">
         <v>10000</v>
       </c>
       <c r="K125" s="5" t="s">
@@ -15804,7 +15813,7 @@
       <c r="I126" t="s">
         <v>933</v>
       </c>
-      <c r="J126">
+      <c r="J126" s="28">
         <v>10000</v>
       </c>
       <c r="K126" s="5" t="s">
@@ -15884,7 +15893,7 @@
       <c r="I127" t="s">
         <v>933</v>
       </c>
-      <c r="J127">
+      <c r="J127" s="28">
         <v>2000</v>
       </c>
       <c r="K127" s="5" t="s">
@@ -15964,7 +15973,7 @@
       <c r="I128" t="s">
         <v>933</v>
       </c>
-      <c r="J128">
+      <c r="J128" s="28">
         <v>300000</v>
       </c>
       <c r="K128" s="5" t="s">
@@ -16046,7 +16055,7 @@
       <c r="I129" t="s">
         <v>933</v>
       </c>
-      <c r="J129">
+      <c r="J129" s="28">
         <v>20000</v>
       </c>
       <c r="K129" s="5" t="s">
@@ -16128,7 +16137,7 @@
       <c r="I130" s="7" t="s">
         <v>933</v>
       </c>
-      <c r="J130" s="7">
+      <c r="J130" s="29">
         <v>4000</v>
       </c>
       <c r="K130" s="8" t="s">
@@ -16210,7 +16219,7 @@
       <c r="I131" t="s">
         <v>1624</v>
       </c>
-      <c r="J131">
+      <c r="J131" s="28">
         <v>70000</v>
       </c>
       <c r="K131" s="5" t="s">
@@ -16294,7 +16303,7 @@
       <c r="I132" t="s">
         <v>1624</v>
       </c>
-      <c r="J132">
+      <c r="J132" s="28">
         <v>1000000</v>
       </c>
       <c r="K132" s="5" t="s">
@@ -16378,7 +16387,7 @@
       <c r="I133" t="s">
         <v>933</v>
       </c>
-      <c r="J133">
+      <c r="J133" s="28">
         <v>20000</v>
       </c>
       <c r="K133" s="5" t="s">
@@ -16460,7 +16469,7 @@
       <c r="I134" t="s">
         <v>1624</v>
       </c>
-      <c r="J134">
+      <c r="J134" s="28">
         <v>1000000</v>
       </c>
       <c r="K134" s="5" t="s">
@@ -16544,7 +16553,7 @@
       <c r="I135" t="s">
         <v>1624</v>
       </c>
-      <c r="J135">
+      <c r="J135" s="28">
         <v>8000000</v>
       </c>
       <c r="K135" s="5" t="s">
@@ -16628,7 +16637,7 @@
       <c r="I136" t="s">
         <v>933</v>
       </c>
-      <c r="J136">
+      <c r="J136" s="28">
         <v>70000</v>
       </c>
       <c r="K136" s="5" t="s">
@@ -16710,8 +16719,8 @@
       <c r="I137" t="s">
         <v>933</v>
       </c>
-      <c r="J137">
-        <v>30</v>
+      <c r="J137" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K137" s="5" t="s">
         <v>933</v>
@@ -16792,8 +16801,8 @@
       <c r="I138" t="s">
         <v>933</v>
       </c>
-      <c r="J138">
-        <v>50</v>
+      <c r="J138" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K138" s="5" t="s">
         <v>933</v>
@@ -16874,7 +16883,7 @@
       <c r="I139" t="s">
         <v>933</v>
       </c>
-      <c r="J139">
+      <c r="J139" s="28">
         <v>70000</v>
       </c>
       <c r="K139" s="5" t="s">
@@ -16956,7 +16965,7 @@
       <c r="I140" t="s">
         <v>1624</v>
       </c>
-      <c r="J140">
+      <c r="J140" s="28">
         <v>1000000</v>
       </c>
       <c r="K140" s="5" t="s">
@@ -17040,7 +17049,7 @@
       <c r="I141" t="s">
         <v>1624</v>
       </c>
-      <c r="J141">
+      <c r="J141" s="28">
         <v>300000</v>
       </c>
       <c r="K141" s="5" t="s">
@@ -17124,7 +17133,7 @@
       <c r="I142" t="s">
         <v>1624</v>
       </c>
-      <c r="J142">
+      <c r="J142" s="28">
         <v>1000000</v>
       </c>
       <c r="K142" s="5" t="s">
@@ -17208,7 +17217,7 @@
       <c r="I143" t="s">
         <v>1624</v>
       </c>
-      <c r="J143">
+      <c r="J143" s="28">
         <v>500000</v>
       </c>
       <c r="K143" s="5" t="s">
@@ -17292,7 +17301,7 @@
       <c r="I144" t="s">
         <v>1624</v>
       </c>
-      <c r="J144">
+      <c r="J144" s="28">
         <v>600000</v>
       </c>
       <c r="K144" s="5" t="s">
@@ -17376,7 +17385,7 @@
       <c r="I145" t="s">
         <v>1624</v>
       </c>
-      <c r="J145">
+      <c r="J145" s="28">
         <v>100000</v>
       </c>
       <c r="K145" s="5" t="s">
@@ -17460,8 +17469,8 @@
       <c r="I146" t="s">
         <v>933</v>
       </c>
-      <c r="J146">
-        <v>10</v>
+      <c r="J146" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K146" s="5" t="s">
         <v>933</v>
@@ -17540,7 +17549,7 @@
       <c r="I147" t="s">
         <v>933</v>
       </c>
-      <c r="J147">
+      <c r="J147" s="28">
         <v>600</v>
       </c>
       <c r="K147" s="5" t="s">
@@ -17620,7 +17629,7 @@
       <c r="I148" t="s">
         <v>1624</v>
       </c>
-      <c r="J148">
+      <c r="J148" s="28">
         <v>400000</v>
       </c>
       <c r="K148" s="5" t="s">
@@ -17704,7 +17713,7 @@
       <c r="I149" t="s">
         <v>933</v>
       </c>
-      <c r="J149">
+      <c r="J149" s="28">
         <v>1000000</v>
       </c>
       <c r="K149" s="5" t="s">
@@ -17786,8 +17795,8 @@
       <c r="I150" t="s">
         <v>933</v>
       </c>
-      <c r="J150">
-        <v>20</v>
+      <c r="J150" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K150" s="5" t="s">
         <v>933</v>
@@ -17868,7 +17877,7 @@
       <c r="I151" s="7" t="s">
         <v>1624</v>
       </c>
-      <c r="J151" s="7">
+      <c r="J151" s="29">
         <v>200000</v>
       </c>
       <c r="K151" s="8" t="s">
@@ -17952,8 +17961,8 @@
       <c r="I152" t="s">
         <v>933</v>
       </c>
-      <c r="J152">
-        <v>40</v>
+      <c r="J152" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K152" s="5" t="s">
         <v>933</v>
@@ -18034,7 +18043,7 @@
       <c r="I153" t="s">
         <v>933</v>
       </c>
-      <c r="J153">
+      <c r="J153" s="28">
         <v>300000</v>
       </c>
       <c r="K153" s="5" t="s">
@@ -18116,7 +18125,7 @@
       <c r="I154" t="s">
         <v>1624</v>
       </c>
-      <c r="J154">
+      <c r="J154" s="28">
         <v>10000</v>
       </c>
       <c r="K154" s="5" t="s">
@@ -18200,7 +18209,7 @@
       <c r="I155" t="s">
         <v>933</v>
       </c>
-      <c r="J155">
+      <c r="J155" s="28">
         <v>20000</v>
       </c>
       <c r="K155" s="5" t="s">
@@ -18282,7 +18291,7 @@
       <c r="I156" t="s">
         <v>933</v>
       </c>
-      <c r="J156">
+      <c r="J156" s="28">
         <v>3000000</v>
       </c>
       <c r="K156" s="5" t="s">
@@ -18364,7 +18373,7 @@
       <c r="I157" t="s">
         <v>1624</v>
       </c>
-      <c r="J157">
+      <c r="J157" s="28">
         <v>900000</v>
       </c>
       <c r="K157" s="5" t="s">
@@ -18448,7 +18457,7 @@
       <c r="I158" t="s">
         <v>933</v>
       </c>
-      <c r="J158">
+      <c r="J158" s="28">
         <v>100000</v>
       </c>
       <c r="K158" s="5" t="s">
@@ -18530,8 +18539,8 @@
       <c r="I159" t="s">
         <v>933</v>
       </c>
-      <c r="J159">
-        <v>60</v>
+      <c r="J159" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K159" s="5" t="s">
         <v>933</v>
@@ -18612,7 +18621,7 @@
       <c r="I160" t="s">
         <v>933</v>
       </c>
-      <c r="J160">
+      <c r="J160" s="28">
         <v>100000</v>
       </c>
       <c r="K160" s="5" t="s">
@@ -18694,7 +18703,7 @@
       <c r="I161" t="s">
         <v>933</v>
       </c>
-      <c r="J161">
+      <c r="J161" s="28">
         <v>8000</v>
       </c>
       <c r="K161" s="5" t="s">
@@ -18776,7 +18785,7 @@
       <c r="I162" t="s">
         <v>933</v>
       </c>
-      <c r="J162">
+      <c r="J162" s="28">
         <v>20000</v>
       </c>
       <c r="K162" s="5" t="s">
@@ -18858,7 +18867,7 @@
       <c r="I163" t="s">
         <v>933</v>
       </c>
-      <c r="J163">
+      <c r="J163" s="28">
         <v>700000</v>
       </c>
       <c r="K163" s="5" t="s">
@@ -18940,7 +18949,7 @@
       <c r="I164" t="s">
         <v>1624</v>
       </c>
-      <c r="J164">
+      <c r="J164" s="28">
         <v>600000</v>
       </c>
       <c r="K164" s="5" t="s">
@@ -19024,7 +19033,7 @@
       <c r="I165" s="7" t="s">
         <v>933</v>
       </c>
-      <c r="J165" s="7">
+      <c r="J165" s="29">
         <v>90000</v>
       </c>
       <c r="K165" s="8" t="s">
@@ -19106,7 +19115,7 @@
       <c r="I166" t="s">
         <v>933</v>
       </c>
-      <c r="J166">
+      <c r="J166" s="28">
         <v>400000</v>
       </c>
       <c r="K166" s="5" t="s">
@@ -19188,7 +19197,7 @@
       <c r="I167" t="s">
         <v>933</v>
       </c>
-      <c r="J167">
+      <c r="J167" s="28">
         <v>70000</v>
       </c>
       <c r="K167" s="5" t="s">
@@ -19270,7 +19279,7 @@
       <c r="I168" t="s">
         <v>933</v>
       </c>
-      <c r="J168">
+      <c r="J168" s="28">
         <v>600000</v>
       </c>
       <c r="K168" s="5" t="s">
@@ -19352,7 +19361,7 @@
       <c r="I169" t="s">
         <v>933</v>
       </c>
-      <c r="J169">
+      <c r="J169" s="28">
         <v>50000</v>
       </c>
       <c r="K169" s="5" t="s">
@@ -19434,7 +19443,7 @@
       <c r="I170" s="7" t="s">
         <v>933</v>
       </c>
-      <c r="J170" s="7">
+      <c r="J170" s="29">
         <v>2000000</v>
       </c>
       <c r="K170" s="8" t="s">
@@ -19516,8 +19525,8 @@
       <c r="I171" t="s">
         <v>933</v>
       </c>
-      <c r="J171">
-        <v>30</v>
+      <c r="J171" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K171" s="5" t="s">
         <v>933</v>
@@ -19598,7 +19607,7 @@
       <c r="I172" t="s">
         <v>1625</v>
       </c>
-      <c r="J172">
+      <c r="J172" s="28">
         <v>50000</v>
       </c>
       <c r="K172" s="5" t="s">
@@ -19682,7 +19691,7 @@
       <c r="I173" t="s">
         <v>1625</v>
       </c>
-      <c r="J173">
+      <c r="J173" s="28">
         <v>300000</v>
       </c>
       <c r="K173" s="5" t="s">
@@ -19766,7 +19775,7 @@
       <c r="I174" t="s">
         <v>1625</v>
       </c>
-      <c r="J174">
+      <c r="J174" s="28">
         <v>20000</v>
       </c>
       <c r="K174" s="5" t="s">
@@ -19850,7 +19859,7 @@
       <c r="I175" t="s">
         <v>933</v>
       </c>
-      <c r="J175">
+      <c r="J175" s="28">
         <v>2000</v>
       </c>
       <c r="K175" s="5" t="s">
@@ -19932,7 +19941,7 @@
       <c r="I176" t="s">
         <v>933</v>
       </c>
-      <c r="J176">
+      <c r="J176" s="28">
         <v>20000</v>
       </c>
       <c r="K176" s="5" t="s">
@@ -20014,7 +20023,7 @@
       <c r="I177" t="s">
         <v>1625</v>
       </c>
-      <c r="J177">
+      <c r="J177" s="28">
         <v>200000</v>
       </c>
       <c r="K177" s="5" t="s">
@@ -20098,7 +20107,7 @@
       <c r="I178" t="s">
         <v>1625</v>
       </c>
-      <c r="J178">
+      <c r="J178" s="28">
         <v>20000</v>
       </c>
       <c r="K178" s="5" t="s">
@@ -20182,8 +20191,8 @@
       <c r="I179" t="s">
         <v>933</v>
       </c>
-      <c r="J179">
-        <v>90</v>
+      <c r="J179" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K179" s="5" t="s">
         <v>933</v>
@@ -20264,7 +20273,7 @@
       <c r="I180" t="s">
         <v>933</v>
       </c>
-      <c r="J180">
+      <c r="J180" s="28">
         <v>200000</v>
       </c>
       <c r="K180" s="5" t="s">
@@ -20346,7 +20355,7 @@
       <c r="I181" t="s">
         <v>933</v>
       </c>
-      <c r="J181">
+      <c r="J181" s="28">
         <v>600</v>
       </c>
       <c r="K181" s="5" t="s">
@@ -20428,7 +20437,7 @@
       <c r="I182" t="s">
         <v>1625</v>
       </c>
-      <c r="J182">
+      <c r="J182" s="28">
         <v>700000</v>
       </c>
       <c r="K182" s="5" t="s">
@@ -20512,7 +20521,7 @@
       <c r="I183" s="7" t="s">
         <v>933</v>
       </c>
-      <c r="J183" s="7">
+      <c r="J183" s="29">
         <v>30000</v>
       </c>
       <c r="K183" s="8" t="s">
@@ -20594,7 +20603,7 @@
       <c r="I184" t="s">
         <v>933</v>
       </c>
-      <c r="J184">
+      <c r="J184" s="28">
         <v>20000</v>
       </c>
       <c r="K184" s="5" t="s">
@@ -20676,7 +20685,7 @@
       <c r="I185" t="s">
         <v>933</v>
       </c>
-      <c r="J185">
+      <c r="J185" s="28">
         <v>1000</v>
       </c>
       <c r="K185" s="5" t="s">
@@ -20758,7 +20767,7 @@
       <c r="I186" t="s">
         <v>933</v>
       </c>
-      <c r="J186">
+      <c r="J186" s="28">
         <v>10000</v>
       </c>
       <c r="K186" s="5" t="s">
@@ -20840,7 +20849,7 @@
       <c r="I187" t="s">
         <v>933</v>
       </c>
-      <c r="J187">
+      <c r="J187" s="28">
         <v>70000</v>
       </c>
       <c r="K187" s="5" t="s">
@@ -20922,7 +20931,7 @@
       <c r="I188" t="s">
         <v>1626</v>
       </c>
-      <c r="J188">
+      <c r="J188" s="28">
         <v>300000</v>
       </c>
       <c r="K188" s="5" t="s">
@@ -21006,7 +21015,7 @@
       <c r="I189" t="s">
         <v>1626</v>
       </c>
-      <c r="J189">
+      <c r="J189" s="28">
         <v>2000000</v>
       </c>
       <c r="K189" s="5" t="s">
@@ -21090,7 +21099,7 @@
       <c r="I190" t="s">
         <v>1626</v>
       </c>
-      <c r="J190">
+      <c r="J190" s="28">
         <v>300000</v>
       </c>
       <c r="K190" s="5" t="s">
@@ -21174,7 +21183,7 @@
       <c r="I191" t="s">
         <v>1626</v>
       </c>
-      <c r="J191">
+      <c r="J191" s="28">
         <v>400000</v>
       </c>
       <c r="K191" s="5" t="s">
@@ -21258,7 +21267,7 @@
       <c r="I192" t="s">
         <v>1626</v>
       </c>
-      <c r="J192">
+      <c r="J192" s="28">
         <v>3000000</v>
       </c>
       <c r="K192" s="5" t="s">
@@ -21342,7 +21351,7 @@
       <c r="I193" t="s">
         <v>1626</v>
       </c>
-      <c r="J193">
+      <c r="J193" s="28">
         <v>600000</v>
       </c>
       <c r="K193" s="5" t="s">
@@ -21426,7 +21435,7 @@
       <c r="I194" t="s">
         <v>1626</v>
       </c>
-      <c r="J194">
+      <c r="J194" s="28">
         <v>7000</v>
       </c>
       <c r="K194" s="5" t="s">
@@ -21510,7 +21519,7 @@
       <c r="I195" t="s">
         <v>1626</v>
       </c>
-      <c r="J195">
+      <c r="J195" s="28">
         <v>20000</v>
       </c>
       <c r="K195" s="5" t="s">
@@ -21594,7 +21603,7 @@
       <c r="I196" t="s">
         <v>1626</v>
       </c>
-      <c r="J196">
+      <c r="J196" s="28">
         <v>20000</v>
       </c>
       <c r="K196" s="5" t="s">
@@ -21678,8 +21687,8 @@
       <c r="I197" t="s">
         <v>933</v>
       </c>
-      <c r="J197">
-        <v>20</v>
+      <c r="J197" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K197" s="5" t="s">
         <v>933</v>
@@ -21758,8 +21767,8 @@
       <c r="I198" t="s">
         <v>933</v>
       </c>
-      <c r="J198">
-        <v>5</v>
+      <c r="J198" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K198" s="5" t="s">
         <v>933</v>
@@ -21838,8 +21847,8 @@
       <c r="I199" t="s">
         <v>933</v>
       </c>
-      <c r="J199">
-        <v>5</v>
+      <c r="J199" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K199" s="5" t="s">
         <v>933</v>
@@ -21918,7 +21927,7 @@
       <c r="I200" t="s">
         <v>933</v>
       </c>
-      <c r="J200">
+      <c r="J200" s="28">
         <v>2000</v>
       </c>
       <c r="K200" s="5" t="s">
@@ -21998,7 +22007,7 @@
       <c r="I201" t="s">
         <v>933</v>
       </c>
-      <c r="J201">
+      <c r="J201" s="28">
         <v>2000</v>
       </c>
       <c r="K201" s="5" t="s">
@@ -22078,7 +22087,7 @@
       <c r="I202" t="s">
         <v>933</v>
       </c>
-      <c r="J202">
+      <c r="J202" s="28">
         <v>100000</v>
       </c>
       <c r="K202" s="5" t="s">
@@ -22158,7 +22167,7 @@
       <c r="I203" t="s">
         <v>933</v>
       </c>
-      <c r="J203">
+      <c r="J203" s="28">
         <v>20000</v>
       </c>
       <c r="K203" s="5" t="s">
@@ -22238,7 +22247,7 @@
       <c r="I204" t="s">
         <v>933</v>
       </c>
-      <c r="J204">
+      <c r="J204" s="28">
         <v>100000</v>
       </c>
       <c r="K204" s="5" t="s">
@@ -22320,7 +22329,7 @@
       <c r="I205" t="s">
         <v>1626</v>
       </c>
-      <c r="J205">
+      <c r="J205" s="28">
         <v>500000</v>
       </c>
       <c r="K205" s="5" t="s">
@@ -22404,7 +22413,7 @@
       <c r="I206" t="s">
         <v>1626</v>
       </c>
-      <c r="J206">
+      <c r="J206" s="28">
         <v>300</v>
       </c>
       <c r="K206" s="5" t="s">
@@ -22488,7 +22497,7 @@
       <c r="I207" t="s">
         <v>933</v>
       </c>
-      <c r="J207">
+      <c r="J207" s="28">
         <v>4000</v>
       </c>
       <c r="K207" s="5" t="s">
@@ -22570,7 +22579,7 @@
       <c r="I208" t="s">
         <v>933</v>
       </c>
-      <c r="J208">
+      <c r="J208" s="28">
         <v>400000</v>
       </c>
       <c r="K208" s="5" t="s">
@@ -22652,7 +22661,7 @@
       <c r="I209" t="s">
         <v>1626</v>
       </c>
-      <c r="J209">
+      <c r="J209" s="28">
         <v>800000</v>
       </c>
       <c r="K209" s="5" t="s">
@@ -22736,7 +22745,7 @@
       <c r="I210" t="s">
         <v>933</v>
       </c>
-      <c r="J210">
+      <c r="J210" s="28">
         <v>3000</v>
       </c>
       <c r="K210" s="5" t="s">
@@ -22818,7 +22827,7 @@
       <c r="I211" t="s">
         <v>1626</v>
       </c>
-      <c r="J211">
+      <c r="J211" s="28">
         <v>300000</v>
       </c>
       <c r="K211" s="5" t="s">
@@ -22902,7 +22911,7 @@
       <c r="I212" t="s">
         <v>933</v>
       </c>
-      <c r="J212">
+      <c r="J212" s="28">
         <v>1000</v>
       </c>
       <c r="K212" s="5" t="s">
@@ -22979,7 +22988,7 @@
       <c r="I213" t="s">
         <v>933</v>
       </c>
-      <c r="J213">
+      <c r="J213" s="28">
         <v>2000</v>
       </c>
       <c r="K213" s="5" t="s">
@@ -23059,7 +23068,7 @@
       <c r="I214" t="s">
         <v>933</v>
       </c>
-      <c r="J214">
+      <c r="J214" s="28">
         <v>8000</v>
       </c>
       <c r="K214" s="5" t="s">
@@ -23139,7 +23148,7 @@
       <c r="I215" t="s">
         <v>933</v>
       </c>
-      <c r="J215">
+      <c r="J215" s="28">
         <v>5000</v>
       </c>
       <c r="K215" s="5" t="s">
@@ -23219,7 +23228,7 @@
       <c r="I216" t="s">
         <v>933</v>
       </c>
-      <c r="J216">
+      <c r="J216" s="28">
         <v>6000</v>
       </c>
       <c r="K216" s="5" t="s">
@@ -23299,7 +23308,7 @@
       <c r="I217" t="s">
         <v>933</v>
       </c>
-      <c r="J217">
+      <c r="J217" s="28">
         <v>5000</v>
       </c>
       <c r="K217" s="5" t="s">
@@ -23379,7 +23388,7 @@
       <c r="I218" t="s">
         <v>1626</v>
       </c>
-      <c r="J218">
+      <c r="J218" s="28">
         <v>8000</v>
       </c>
       <c r="K218" s="5" t="s">
@@ -23463,7 +23472,7 @@
       <c r="I219" t="s">
         <v>1626</v>
       </c>
-      <c r="J219">
+      <c r="J219" s="28">
         <v>6000</v>
       </c>
       <c r="K219" s="5" t="s">
@@ -23547,7 +23556,7 @@
       <c r="I220" t="s">
         <v>933</v>
       </c>
-      <c r="J220">
+      <c r="J220" s="28">
         <v>20000</v>
       </c>
       <c r="K220" s="5" t="s">
@@ -23629,7 +23638,7 @@
       <c r="I221" t="s">
         <v>933</v>
       </c>
-      <c r="J221">
+      <c r="J221" s="28">
         <v>40000</v>
       </c>
       <c r="K221" s="5" t="s">
@@ -23711,7 +23720,7 @@
       <c r="I222" t="s">
         <v>1626</v>
       </c>
-      <c r="J222">
+      <c r="J222" s="28">
         <v>100000</v>
       </c>
       <c r="K222" s="5" t="s">
@@ -23795,7 +23804,7 @@
       <c r="I223" t="s">
         <v>933</v>
       </c>
-      <c r="J223">
+      <c r="J223" s="28">
         <v>4000</v>
       </c>
       <c r="K223" s="5" t="s">
@@ -23877,7 +23886,7 @@
       <c r="I224" t="s">
         <v>1626</v>
       </c>
-      <c r="J224">
+      <c r="J224" s="28">
         <v>10000</v>
       </c>
       <c r="K224" s="5" t="s">
@@ -23961,7 +23970,7 @@
       <c r="I225" t="s">
         <v>1626</v>
       </c>
-      <c r="J225">
+      <c r="J225" s="28">
         <v>100000</v>
       </c>
       <c r="K225" s="5" t="s">
@@ -24045,7 +24054,7 @@
       <c r="I226" t="s">
         <v>933</v>
       </c>
-      <c r="J226">
+      <c r="J226" s="28">
         <v>6000</v>
       </c>
       <c r="K226" s="5" t="s">
@@ -24127,7 +24136,7 @@
       <c r="I227" t="s">
         <v>1626</v>
       </c>
-      <c r="J227">
+      <c r="J227" s="28">
         <v>20000</v>
       </c>
       <c r="K227" s="5" t="s">
@@ -24211,7 +24220,7 @@
       <c r="I228" t="s">
         <v>1626</v>
       </c>
-      <c r="J228">
+      <c r="J228" s="28">
         <v>300000</v>
       </c>
       <c r="K228" s="5" t="s">
@@ -24295,7 +24304,7 @@
       <c r="I229" t="s">
         <v>933</v>
       </c>
-      <c r="J229">
+      <c r="J229" s="28">
         <v>10000</v>
       </c>
       <c r="K229" s="5" t="s">
@@ -24377,7 +24386,7 @@
       <c r="I230" t="s">
         <v>1626</v>
       </c>
-      <c r="J230">
+      <c r="J230" s="28">
         <v>80000</v>
       </c>
       <c r="K230" s="5" t="s">
@@ -24461,7 +24470,7 @@
       <c r="I231" t="s">
         <v>1626</v>
       </c>
-      <c r="J231">
+      <c r="J231" s="28">
         <v>300000</v>
       </c>
       <c r="K231" s="5" t="s">
@@ -24545,7 +24554,7 @@
       <c r="I232" t="s">
         <v>933</v>
       </c>
-      <c r="J232">
+      <c r="J232" s="28">
         <v>9000</v>
       </c>
       <c r="K232" s="5" t="s">
@@ -24627,7 +24636,7 @@
       <c r="I233" t="s">
         <v>1626</v>
       </c>
-      <c r="J233">
+      <c r="J233" s="28">
         <v>30000</v>
       </c>
       <c r="K233" s="5" t="s">
@@ -24711,7 +24720,7 @@
       <c r="I234" t="s">
         <v>933</v>
       </c>
-      <c r="J234">
+      <c r="J234" s="28">
         <v>70000</v>
       </c>
       <c r="K234" s="5" t="s">
@@ -24791,7 +24800,7 @@
       <c r="I235" t="s">
         <v>933</v>
       </c>
-      <c r="J235">
+      <c r="J235" s="28">
         <v>400000</v>
       </c>
       <c r="K235" s="5" t="s">
@@ -24871,7 +24880,7 @@
       <c r="I236" t="s">
         <v>933</v>
       </c>
-      <c r="J236">
+      <c r="J236" s="28">
         <v>100000</v>
       </c>
       <c r="K236" s="5" t="s">
@@ -24951,8 +24960,8 @@
       <c r="I237" t="s">
         <v>933</v>
       </c>
-      <c r="J237">
-        <v>6</v>
+      <c r="J237" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K237" s="5" t="s">
         <v>933</v>
@@ -25031,8 +25040,8 @@
       <c r="I238" t="s">
         <v>933</v>
       </c>
-      <c r="J238">
-        <v>30</v>
+      <c r="J238" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K238" s="5" t="s">
         <v>933</v>
@@ -25111,8 +25120,8 @@
       <c r="I239" t="s">
         <v>933</v>
       </c>
-      <c r="J239">
-        <v>90</v>
+      <c r="J239" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K239" s="5" t="s">
         <v>933</v>
@@ -25191,8 +25200,8 @@
       <c r="I240" t="s">
         <v>933</v>
       </c>
-      <c r="J240">
-        <v>40</v>
+      <c r="J240" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K240" s="5" t="s">
         <v>933</v>
@@ -25271,8 +25280,8 @@
       <c r="I241" t="s">
         <v>933</v>
       </c>
-      <c r="J241">
-        <v>6</v>
+      <c r="J241" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K241" s="5" t="s">
         <v>933</v>
@@ -25351,7 +25360,7 @@
       <c r="I242" t="s">
         <v>1626</v>
       </c>
-      <c r="J242">
+      <c r="J242" s="28">
         <v>500000</v>
       </c>
       <c r="K242" s="5" t="s">
@@ -25435,7 +25444,7 @@
       <c r="I243" t="s">
         <v>1626</v>
       </c>
-      <c r="J243">
+      <c r="J243" s="28">
         <v>50000</v>
       </c>
       <c r="K243" s="5" t="s">
@@ -25519,7 +25528,7 @@
       <c r="I244" t="s">
         <v>1626</v>
       </c>
-      <c r="J244">
+      <c r="J244" s="28">
         <v>900000</v>
       </c>
       <c r="K244" s="5" t="s">
@@ -25603,7 +25612,7 @@
       <c r="I245" t="s">
         <v>1626</v>
       </c>
-      <c r="J245">
+      <c r="J245" s="28">
         <v>600000</v>
       </c>
       <c r="K245" s="5" t="s">
@@ -25687,7 +25696,7 @@
       <c r="I246" t="s">
         <v>933</v>
       </c>
-      <c r="J246">
+      <c r="J246" s="28">
         <v>40000</v>
       </c>
       <c r="K246" s="5" t="s">
@@ -25767,7 +25776,7 @@
       <c r="I247" t="s">
         <v>933</v>
       </c>
-      <c r="J247">
+      <c r="J247" s="28">
         <v>200000</v>
       </c>
       <c r="K247" s="5" t="s">
@@ -25847,7 +25856,7 @@
       <c r="I248" t="s">
         <v>933</v>
       </c>
-      <c r="J248">
+      <c r="J248" s="28">
         <v>80000</v>
       </c>
       <c r="K248" s="5" t="s">
@@ -25927,7 +25936,7 @@
       <c r="I249" t="s">
         <v>1626</v>
       </c>
-      <c r="J249">
+      <c r="J249" s="28">
         <v>100000</v>
       </c>
       <c r="K249" s="5" t="s">
@@ -26011,7 +26020,7 @@
       <c r="I250" t="s">
         <v>1626</v>
       </c>
-      <c r="J250">
+      <c r="J250" s="28">
         <v>60000</v>
       </c>
       <c r="K250" s="5" t="s">
@@ -26095,7 +26104,7 @@
       <c r="I251" t="s">
         <v>933</v>
       </c>
-      <c r="J251">
+      <c r="J251" s="28">
         <v>10000</v>
       </c>
       <c r="K251" s="5" t="s">
@@ -26177,7 +26186,7 @@
       <c r="I252" t="s">
         <v>1626</v>
       </c>
-      <c r="J252">
+      <c r="J252" s="28">
         <v>10000</v>
       </c>
       <c r="K252" s="5" t="s">
@@ -26261,7 +26270,7 @@
       <c r="I253" t="s">
         <v>1626</v>
       </c>
-      <c r="J253">
+      <c r="J253" s="28">
         <v>80000</v>
       </c>
       <c r="K253" s="5" t="s">
@@ -26345,7 +26354,7 @@
       <c r="I254" t="s">
         <v>933</v>
       </c>
-      <c r="J254">
+      <c r="J254" s="28">
         <v>7000</v>
       </c>
       <c r="K254" s="5" t="s">
@@ -26427,7 +26436,7 @@
       <c r="I255" t="s">
         <v>1626</v>
       </c>
-      <c r="J255">
+      <c r="J255" s="28">
         <v>20000</v>
       </c>
       <c r="K255" s="5" t="s">
@@ -26511,7 +26520,7 @@
       <c r="I256" t="s">
         <v>1626</v>
       </c>
-      <c r="J256">
+      <c r="J256" s="28">
         <v>30000</v>
       </c>
       <c r="K256" s="5" t="s">
@@ -26595,7 +26604,7 @@
       <c r="I257" t="s">
         <v>1626</v>
       </c>
-      <c r="J257">
+      <c r="J257" s="28">
         <v>200000</v>
       </c>
       <c r="K257" s="5" t="s">
@@ -26679,7 +26688,7 @@
       <c r="I258" t="s">
         <v>1626</v>
       </c>
-      <c r="J258">
+      <c r="J258" s="28">
         <v>200000</v>
       </c>
       <c r="K258" s="5" t="s">
@@ -26763,7 +26772,7 @@
       <c r="I259" t="s">
         <v>933</v>
       </c>
-      <c r="J259">
+      <c r="J259" s="28">
         <v>30000</v>
       </c>
       <c r="K259" s="5" t="s">
@@ -26845,7 +26854,7 @@
       <c r="I260" t="s">
         <v>1626</v>
       </c>
-      <c r="J260">
+      <c r="J260" s="28">
         <v>70000</v>
       </c>
       <c r="K260" s="5" t="s">
@@ -26929,7 +26938,7 @@
       <c r="I261" t="s">
         <v>1626</v>
       </c>
-      <c r="J261">
+      <c r="J261" s="28">
         <v>200000</v>
       </c>
       <c r="K261" s="5" t="s">
@@ -27013,7 +27022,7 @@
       <c r="I262" t="s">
         <v>1626</v>
       </c>
-      <c r="J262">
+      <c r="J262" s="28">
         <v>200000</v>
       </c>
       <c r="K262" s="5" t="s">
@@ -27097,7 +27106,7 @@
       <c r="I263" t="s">
         <v>933</v>
       </c>
-      <c r="J263">
+      <c r="J263" s="28">
         <v>10000</v>
       </c>
       <c r="K263" s="5" t="s">
@@ -27179,7 +27188,7 @@
       <c r="I264" t="s">
         <v>1626</v>
       </c>
-      <c r="J264">
+      <c r="J264" s="28">
         <v>30000</v>
       </c>
       <c r="K264" s="5" t="s">
@@ -27263,7 +27272,7 @@
       <c r="I265" t="s">
         <v>933</v>
       </c>
-      <c r="J265">
+      <c r="J265" s="28">
         <v>20000</v>
       </c>
       <c r="K265" s="5" t="s">
@@ -27345,7 +27354,7 @@
       <c r="I266" t="s">
         <v>933</v>
       </c>
-      <c r="J266">
+      <c r="J266" s="28">
         <v>5000</v>
       </c>
       <c r="K266" s="5" t="s">
@@ -27427,7 +27436,7 @@
       <c r="I267" t="s">
         <v>933</v>
       </c>
-      <c r="J267">
+      <c r="J267" s="28">
         <v>30000</v>
       </c>
       <c r="K267" s="5" t="s">
@@ -27509,7 +27518,7 @@
       <c r="I268" t="s">
         <v>933</v>
       </c>
-      <c r="J268">
+      <c r="J268" s="28">
         <v>10000</v>
       </c>
       <c r="K268" s="5" t="s">
@@ -27591,7 +27600,7 @@
       <c r="I269" t="s">
         <v>933</v>
       </c>
-      <c r="J269">
+      <c r="J269" s="28">
         <v>30000</v>
       </c>
       <c r="K269" s="5" t="s">
@@ -27673,7 +27682,7 @@
       <c r="I270" t="s">
         <v>933</v>
       </c>
-      <c r="J270">
+      <c r="J270" s="28">
         <v>60000</v>
       </c>
       <c r="K270" s="5" t="s">
@@ -27755,7 +27764,7 @@
       <c r="I271" t="s">
         <v>933</v>
       </c>
-      <c r="J271">
+      <c r="J271" s="28">
         <v>100000</v>
       </c>
       <c r="K271" s="5" t="s">
@@ -27837,7 +27846,7 @@
       <c r="I272" t="s">
         <v>1626</v>
       </c>
-      <c r="J272">
+      <c r="J272" s="28">
         <v>3000000</v>
       </c>
       <c r="K272" s="5" t="s">
@@ -27921,7 +27930,7 @@
       <c r="I273" t="s">
         <v>1626</v>
       </c>
-      <c r="J273">
+      <c r="J273" s="28">
         <v>700000</v>
       </c>
       <c r="K273" s="5" t="s">
@@ -28005,7 +28014,7 @@
       <c r="I274" t="s">
         <v>1626</v>
       </c>
-      <c r="J274">
+      <c r="J274" s="28">
         <v>2000000</v>
       </c>
       <c r="K274" s="5" t="s">
@@ -28089,7 +28098,7 @@
       <c r="I275" t="s">
         <v>1626</v>
       </c>
-      <c r="J275">
+      <c r="J275" s="28">
         <v>10000000</v>
       </c>
       <c r="K275" s="5" t="s">
@@ -28173,7 +28182,7 @@
       <c r="I276" t="s">
         <v>933</v>
       </c>
-      <c r="J276">
+      <c r="J276" s="28">
         <v>9000</v>
       </c>
       <c r="K276" s="5" t="s">
@@ -28253,7 +28262,7 @@
       <c r="I277" t="s">
         <v>933</v>
       </c>
-      <c r="J277">
+      <c r="J277" s="28">
         <v>30000</v>
       </c>
       <c r="K277" s="5" t="s">
@@ -28333,7 +28342,7 @@
       <c r="I278" t="s">
         <v>1626</v>
       </c>
-      <c r="J278">
+      <c r="J278" s="28">
         <v>30000</v>
       </c>
       <c r="K278" s="5" t="s">
@@ -28417,7 +28426,7 @@
       <c r="I279" t="s">
         <v>1626</v>
       </c>
-      <c r="J279">
+      <c r="J279" s="28">
         <v>60000</v>
       </c>
       <c r="K279" s="5" t="s">
@@ -28501,8 +28510,8 @@
       <c r="I280" t="s">
         <v>933</v>
       </c>
-      <c r="J280">
-        <v>10</v>
+      <c r="J280" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K280" s="5" t="s">
         <v>933</v>
@@ -28581,8 +28590,8 @@
       <c r="I281" t="s">
         <v>933</v>
       </c>
-      <c r="J281">
-        <v>50</v>
+      <c r="J281" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K281" s="5" t="s">
         <v>933</v>
@@ -28661,7 +28670,7 @@
       <c r="I282" t="s">
         <v>933</v>
       </c>
-      <c r="J282">
+      <c r="J282" s="28">
         <v>2000</v>
       </c>
       <c r="K282" s="5" t="s">
@@ -28741,7 +28750,7 @@
       <c r="I283" t="s">
         <v>933</v>
       </c>
-      <c r="J283">
+      <c r="J283" s="28">
         <v>1000</v>
       </c>
       <c r="K283" s="5" t="s">
@@ -28821,7 +28830,7 @@
       <c r="I284" t="s">
         <v>933</v>
       </c>
-      <c r="J284">
+      <c r="J284" s="28">
         <v>10000</v>
       </c>
       <c r="K284" s="5" t="s">
@@ -28901,7 +28910,7 @@
       <c r="I285" t="s">
         <v>933</v>
       </c>
-      <c r="J285">
+      <c r="J285" s="28">
         <v>40000</v>
       </c>
       <c r="K285" s="5" t="s">
@@ -28981,7 +28990,7 @@
       <c r="I286" t="s">
         <v>933</v>
       </c>
-      <c r="J286">
+      <c r="J286" s="28">
         <v>300</v>
       </c>
       <c r="K286" s="5" t="s">
@@ -29061,8 +29070,8 @@
       <c r="I287" t="s">
         <v>933</v>
       </c>
-      <c r="J287">
-        <v>1</v>
+      <c r="J287" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K287" s="5" t="s">
         <v>933</v>
@@ -29141,8 +29150,8 @@
       <c r="I288" t="s">
         <v>933</v>
       </c>
-      <c r="J288">
-        <v>60</v>
+      <c r="J288" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K288" s="5" t="s">
         <v>933</v>
@@ -29221,7 +29230,7 @@
       <c r="I289" t="s">
         <v>933</v>
       </c>
-      <c r="J289">
+      <c r="J289" s="28">
         <v>200000</v>
       </c>
       <c r="K289" s="5" t="s">
@@ -29303,7 +29312,7 @@
       <c r="I290" t="s">
         <v>1626</v>
       </c>
-      <c r="J290">
+      <c r="J290" s="28">
         <v>800000</v>
       </c>
       <c r="K290" s="5" t="s">
@@ -29387,7 +29396,7 @@
       <c r="I291" t="s">
         <v>933</v>
       </c>
-      <c r="J291">
+      <c r="J291" s="28">
         <v>200</v>
       </c>
       <c r="K291" s="5" t="s">
@@ -29469,8 +29478,8 @@
       <c r="I292" t="s">
         <v>933</v>
       </c>
-      <c r="J292">
-        <v>3</v>
+      <c r="J292" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K292" s="5" t="s">
         <v>933</v>
@@ -29551,7 +29560,7 @@
       <c r="I293" t="s">
         <v>933</v>
       </c>
-      <c r="J293">
+      <c r="J293" s="28">
         <v>10000</v>
       </c>
       <c r="K293" s="5" t="s">
@@ -29633,7 +29642,7 @@
       <c r="I294" t="s">
         <v>933</v>
       </c>
-      <c r="J294">
+      <c r="J294" s="28">
         <v>600000</v>
       </c>
       <c r="K294" s="5" t="s">
@@ -29715,7 +29724,7 @@
       <c r="I295" t="s">
         <v>1626</v>
       </c>
-      <c r="J295">
+      <c r="J295" s="28">
         <v>1000000</v>
       </c>
       <c r="K295" s="5" t="s">
@@ -29799,7 +29808,7 @@
       <c r="I296" t="s">
         <v>1626</v>
       </c>
-      <c r="J296">
+      <c r="J296" s="28">
         <v>5000</v>
       </c>
       <c r="K296" s="5" t="s">
@@ -29883,7 +29892,7 @@
       <c r="I297" t="s">
         <v>1626</v>
       </c>
-      <c r="J297">
+      <c r="J297" s="28">
         <v>9000</v>
       </c>
       <c r="K297" s="5" t="s">
@@ -29967,7 +29976,7 @@
       <c r="I298" t="s">
         <v>933</v>
       </c>
-      <c r="J298">
+      <c r="J298" s="28">
         <v>1000</v>
       </c>
       <c r="K298" s="5" t="s">
@@ -30049,8 +30058,8 @@
       <c r="I299" t="s">
         <v>933</v>
       </c>
-      <c r="J299">
-        <v>10</v>
+      <c r="J299" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K299" s="5" t="s">
         <v>933</v>
@@ -30131,7 +30140,7 @@
       <c r="I300" t="s">
         <v>933</v>
       </c>
-      <c r="J300">
+      <c r="J300" s="28">
         <v>8000</v>
       </c>
       <c r="K300" s="5" t="s">
@@ -30213,7 +30222,7 @@
       <c r="I301" t="s">
         <v>1626</v>
       </c>
-      <c r="J301">
+      <c r="J301" s="28">
         <v>400000</v>
       </c>
       <c r="K301" s="5" t="s">
@@ -30297,7 +30306,7 @@
       <c r="I302" t="s">
         <v>1626</v>
       </c>
-      <c r="J302">
+      <c r="J302" s="28">
         <v>3000</v>
       </c>
       <c r="K302" s="5" t="s">
@@ -30381,7 +30390,7 @@
       <c r="I303" t="s">
         <v>1626</v>
       </c>
-      <c r="J303">
+      <c r="J303" s="28">
         <v>3000</v>
       </c>
       <c r="K303" s="5" t="s">
@@ -30465,7 +30474,7 @@
       <c r="I304" t="s">
         <v>933</v>
       </c>
-      <c r="J304">
+      <c r="J304" s="28">
         <v>10000</v>
       </c>
       <c r="K304" s="5" t="s">
@@ -30545,7 +30554,7 @@
       <c r="I305" t="s">
         <v>933</v>
       </c>
-      <c r="J305">
+      <c r="J305" s="28">
         <v>60000</v>
       </c>
       <c r="K305" s="5" t="s">
@@ -30625,7 +30634,7 @@
       <c r="I306" t="s">
         <v>933</v>
       </c>
-      <c r="J306">
+      <c r="J306" s="28">
         <v>700000</v>
       </c>
       <c r="K306" s="5" t="s">
@@ -30707,7 +30716,7 @@
       <c r="I307" t="s">
         <v>933</v>
       </c>
-      <c r="J307">
+      <c r="J307" s="28">
         <v>10000</v>
       </c>
       <c r="K307" s="5" t="s">
@@ -30787,7 +30796,7 @@
       <c r="I308" t="s">
         <v>933</v>
       </c>
-      <c r="J308">
+      <c r="J308" s="28">
         <v>200000</v>
       </c>
       <c r="K308" s="5" t="s">
@@ -30869,7 +30878,7 @@
       <c r="I309" t="s">
         <v>933</v>
       </c>
-      <c r="J309">
+      <c r="J309" s="28">
         <v>500000</v>
       </c>
       <c r="K309" s="5" t="s">
@@ -30951,7 +30960,7 @@
       <c r="I310" t="s">
         <v>933</v>
       </c>
-      <c r="J310">
+      <c r="J310" s="28">
         <v>500000</v>
       </c>
       <c r="K310" s="5" t="s">
@@ -31033,7 +31042,7 @@
       <c r="I311" t="s">
         <v>933</v>
       </c>
-      <c r="J311">
+      <c r="J311" s="28">
         <v>100000</v>
       </c>
       <c r="K311" s="5" t="s">
@@ -31115,7 +31124,7 @@
       <c r="I312" t="s">
         <v>933</v>
       </c>
-      <c r="J312">
+      <c r="J312" s="28">
         <v>2000000</v>
       </c>
       <c r="K312" s="5" t="s">
@@ -31197,7 +31206,7 @@
       <c r="I313" t="s">
         <v>933</v>
       </c>
-      <c r="J313">
+      <c r="J313" s="28">
         <v>100000</v>
       </c>
       <c r="K313" s="5" t="s">
@@ -31277,8 +31286,8 @@
       <c r="I314" t="s">
         <v>933</v>
       </c>
-      <c r="J314">
-        <v>30</v>
+      <c r="J314" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K314" s="5" t="s">
         <v>933</v>
@@ -31357,8 +31366,8 @@
       <c r="I315" t="s">
         <v>933</v>
       </c>
-      <c r="J315">
-        <v>10</v>
+      <c r="J315" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K315" s="5" t="s">
         <v>933</v>
@@ -31437,7 +31446,7 @@
       <c r="I316" t="s">
         <v>933</v>
       </c>
-      <c r="J316">
+      <c r="J316" s="28">
         <v>40000</v>
       </c>
       <c r="K316" s="5" t="s">
@@ -31519,7 +31528,7 @@
       <c r="I317" t="s">
         <v>933</v>
       </c>
-      <c r="J317">
+      <c r="J317" s="28">
         <v>200000</v>
       </c>
       <c r="K317" s="5" t="s">
@@ -31601,7 +31610,7 @@
       <c r="I318" t="s">
         <v>933</v>
       </c>
-      <c r="J318">
+      <c r="J318" s="28">
         <v>70000</v>
       </c>
       <c r="K318" s="5" t="s">
@@ -31683,7 +31692,7 @@
       <c r="I319" t="s">
         <v>933</v>
       </c>
-      <c r="J319">
+      <c r="J319" s="28">
         <v>200000</v>
       </c>
       <c r="K319" s="5" t="s">
@@ -31765,7 +31774,7 @@
       <c r="I320" t="s">
         <v>933</v>
       </c>
-      <c r="J320">
+      <c r="J320" s="28">
         <v>30000</v>
       </c>
       <c r="K320" s="5" t="s">
@@ -31847,7 +31856,7 @@
       <c r="I321" t="s">
         <v>933</v>
       </c>
-      <c r="J321">
+      <c r="J321" s="28">
         <v>80000</v>
       </c>
       <c r="K321" s="5" t="s">
@@ -31929,7 +31938,7 @@
       <c r="I322" t="s">
         <v>1626</v>
       </c>
-      <c r="J322">
+      <c r="J322" s="28">
         <v>200000</v>
       </c>
       <c r="K322" s="5" t="s">
@@ -32013,7 +32022,7 @@
       <c r="I323" t="s">
         <v>1626</v>
       </c>
-      <c r="J323">
+      <c r="J323" s="28">
         <v>2000000</v>
       </c>
       <c r="K323" s="5" t="s">
@@ -32097,7 +32106,7 @@
       <c r="I324" t="s">
         <v>1626</v>
       </c>
-      <c r="J324">
+      <c r="J324" s="28">
         <v>5000</v>
       </c>
       <c r="K324" s="5" t="s">
@@ -32181,7 +32190,7 @@
       <c r="I325" t="s">
         <v>1626</v>
       </c>
-      <c r="J325">
+      <c r="J325" s="28">
         <v>50000</v>
       </c>
       <c r="K325" s="5" t="s">
@@ -32265,7 +32274,7 @@
       <c r="I326" t="s">
         <v>1626</v>
       </c>
-      <c r="J326">
+      <c r="J326" s="28">
         <v>100000</v>
       </c>
       <c r="K326" s="5" t="s">
@@ -32349,7 +32358,7 @@
       <c r="I327" t="s">
         <v>1626</v>
       </c>
-      <c r="J327">
+      <c r="J327" s="28">
         <v>20000</v>
       </c>
       <c r="K327" s="5" t="s">
@@ -32433,7 +32442,7 @@
       <c r="I328" t="s">
         <v>933</v>
       </c>
-      <c r="J328">
+      <c r="J328" s="28">
         <v>60000</v>
       </c>
       <c r="K328" s="5" t="s">
@@ -32515,7 +32524,7 @@
       <c r="I329" t="s">
         <v>933</v>
       </c>
-      <c r="J329">
+      <c r="J329" s="28">
         <v>30000</v>
       </c>
       <c r="K329" s="5" t="s">
@@ -32597,7 +32606,7 @@
       <c r="I330" t="s">
         <v>933</v>
       </c>
-      <c r="J330">
+      <c r="J330" s="28">
         <v>200000</v>
       </c>
       <c r="K330" s="5" t="s">
@@ -32679,7 +32688,7 @@
       <c r="I331" t="s">
         <v>933</v>
       </c>
-      <c r="J331">
+      <c r="J331" s="28">
         <v>700</v>
       </c>
       <c r="K331" s="5" t="s">
@@ -32761,7 +32770,7 @@
       <c r="I332" t="s">
         <v>1626</v>
       </c>
-      <c r="J332">
+      <c r="J332" s="28">
         <v>40000</v>
       </c>
       <c r="K332" s="5" t="s">
@@ -32845,7 +32854,7 @@
       <c r="I333" t="s">
         <v>1626</v>
       </c>
-      <c r="J333">
+      <c r="J333" s="28">
         <v>3000000</v>
       </c>
       <c r="K333" s="5" t="s">
@@ -32929,7 +32938,7 @@
       <c r="I334" t="s">
         <v>1626</v>
       </c>
-      <c r="J334">
+      <c r="J334" s="28">
         <v>30000</v>
       </c>
       <c r="K334" s="5" t="s">
@@ -33013,7 +33022,7 @@
       <c r="I335" t="s">
         <v>1626</v>
       </c>
-      <c r="J335">
+      <c r="J335" s="28">
         <v>500000</v>
       </c>
       <c r="K335" s="5" t="s">
@@ -33097,7 +33106,7 @@
       <c r="I336" t="s">
         <v>1626</v>
       </c>
-      <c r="J336">
+      <c r="J336" s="28">
         <v>70000</v>
       </c>
       <c r="K336" s="5" t="s">
@@ -33181,7 +33190,7 @@
       <c r="I337" t="s">
         <v>1626</v>
       </c>
-      <c r="J337">
+      <c r="J337" s="28">
         <v>2000000</v>
       </c>
       <c r="K337" s="5" t="s">
@@ -33265,7 +33274,7 @@
       <c r="I338" t="s">
         <v>1626</v>
       </c>
-      <c r="J338">
+      <c r="J338" s="28">
         <v>90000</v>
       </c>
       <c r="K338" s="5" t="s">
@@ -33349,7 +33358,7 @@
       <c r="I339" t="s">
         <v>1626</v>
       </c>
-      <c r="J339">
+      <c r="J339" s="28">
         <v>80000</v>
       </c>
       <c r="K339" s="5" t="s">
@@ -33433,7 +33442,7 @@
       <c r="I340" t="s">
         <v>933</v>
       </c>
-      <c r="J340">
+      <c r="J340" s="28">
         <v>50000</v>
       </c>
       <c r="K340" s="5" t="s">
@@ -33515,7 +33524,7 @@
       <c r="I341" t="s">
         <v>933</v>
       </c>
-      <c r="J341">
+      <c r="J341" s="28">
         <v>100000</v>
       </c>
       <c r="K341" s="5" t="s">
@@ -33597,7 +33606,7 @@
       <c r="I342" t="s">
         <v>933</v>
       </c>
-      <c r="J342">
+      <c r="J342" s="28">
         <v>2000</v>
       </c>
       <c r="K342" s="5" t="s">
@@ -33679,7 +33688,7 @@
       <c r="I343" t="s">
         <v>1626</v>
       </c>
-      <c r="J343">
+      <c r="J343" s="28">
         <v>600000</v>
       </c>
       <c r="K343" s="5" t="s">
@@ -33763,7 +33772,7 @@
       <c r="I344" t="s">
         <v>1626</v>
       </c>
-      <c r="J344">
+      <c r="J344" s="28">
         <v>8000000</v>
       </c>
       <c r="K344" s="5" t="s">
@@ -33847,7 +33856,7 @@
       <c r="I345" t="s">
         <v>1626</v>
       </c>
-      <c r="J345">
+      <c r="J345" s="28">
         <v>50000</v>
       </c>
       <c r="K345" s="5" t="s">
@@ -33931,7 +33940,7 @@
       <c r="I346" t="s">
         <v>1626</v>
       </c>
-      <c r="J346">
+      <c r="J346" s="28">
         <v>200000</v>
       </c>
       <c r="K346" s="5" t="s">
@@ -34015,7 +34024,7 @@
       <c r="I347" t="s">
         <v>1626</v>
       </c>
-      <c r="J347">
+      <c r="J347" s="28">
         <v>1000000</v>
       </c>
       <c r="K347" s="5" t="s">
@@ -34099,7 +34108,7 @@
       <c r="I348" t="s">
         <v>933</v>
       </c>
-      <c r="J348">
+      <c r="J348" s="28">
         <v>30000</v>
       </c>
       <c r="K348" s="5" t="s">
@@ -34181,7 +34190,7 @@
       <c r="I349" t="s">
         <v>933</v>
       </c>
-      <c r="J349">
+      <c r="J349" s="28">
         <v>10000</v>
       </c>
       <c r="K349" s="5" t="s">
@@ -34263,7 +34272,7 @@
       <c r="I350" t="s">
         <v>933</v>
       </c>
-      <c r="J350">
+      <c r="J350" s="28">
         <v>40000</v>
       </c>
       <c r="K350" s="5" t="s">
@@ -34345,7 +34354,7 @@
       <c r="I351" t="s">
         <v>933</v>
       </c>
-      <c r="J351">
+      <c r="J351" s="28">
         <v>400</v>
       </c>
       <c r="K351" s="5" t="s">
@@ -34427,7 +34436,7 @@
       <c r="I352" t="s">
         <v>933</v>
       </c>
-      <c r="J352">
+      <c r="J352" s="28">
         <v>10000</v>
       </c>
       <c r="K352" s="5" t="s">
@@ -34507,7 +34516,7 @@
       <c r="I353" t="s">
         <v>933</v>
       </c>
-      <c r="J353">
+      <c r="J353" s="28">
         <v>3000</v>
       </c>
       <c r="K353" s="5" t="s">
@@ -34587,7 +34596,7 @@
       <c r="I354" t="s">
         <v>933</v>
       </c>
-      <c r="J354">
+      <c r="J354" s="28">
         <v>4000</v>
       </c>
       <c r="K354" s="5" t="s">
@@ -34667,7 +34676,7 @@
       <c r="I355" t="s">
         <v>933</v>
       </c>
-      <c r="J355">
+      <c r="J355" s="28">
         <v>40000</v>
       </c>
       <c r="K355" s="5" t="s">
@@ -34747,7 +34756,7 @@
       <c r="I356" t="s">
         <v>933</v>
       </c>
-      <c r="J356">
+      <c r="J356" s="28">
         <v>6000</v>
       </c>
       <c r="K356" s="5" t="s">
@@ -34829,7 +34838,7 @@
       <c r="I357" t="s">
         <v>933</v>
       </c>
-      <c r="J357">
+      <c r="J357" s="28">
         <v>7000</v>
       </c>
       <c r="K357" s="5" t="s">
@@ -34911,7 +34920,7 @@
       <c r="I358" t="s">
         <v>933</v>
       </c>
-      <c r="J358">
+      <c r="J358" s="28">
         <v>1000000</v>
       </c>
       <c r="K358" s="5" t="s">
@@ -34993,7 +35002,7 @@
       <c r="I359" t="s">
         <v>1626</v>
       </c>
-      <c r="J359">
+      <c r="J359" s="28">
         <v>70000</v>
       </c>
       <c r="K359" s="5" t="s">
@@ -35077,7 +35086,7 @@
       <c r="I360" t="s">
         <v>933</v>
       </c>
-      <c r="J360">
+      <c r="J360" s="28">
         <v>40000</v>
       </c>
       <c r="K360" s="5" t="s">
@@ -35159,7 +35168,7 @@
       <c r="I361" t="s">
         <v>1626</v>
       </c>
-      <c r="J361">
+      <c r="J361" s="28">
         <v>200000</v>
       </c>
       <c r="K361" s="5" t="s">
@@ -35243,7 +35252,7 @@
       <c r="I362" t="s">
         <v>933</v>
       </c>
-      <c r="J362">
+      <c r="J362" s="28">
         <v>200000</v>
       </c>
       <c r="K362" s="5" t="s">
@@ -35325,7 +35334,7 @@
       <c r="I363" t="s">
         <v>1626</v>
       </c>
-      <c r="J363">
+      <c r="J363" s="28">
         <v>40000</v>
       </c>
       <c r="K363" s="5" t="s">
@@ -35409,7 +35418,7 @@
       <c r="I364" t="s">
         <v>1626</v>
       </c>
-      <c r="J364">
+      <c r="J364" s="28">
         <v>300000</v>
       </c>
       <c r="K364" s="5" t="s">
@@ -35493,7 +35502,7 @@
       <c r="I365" t="s">
         <v>933</v>
       </c>
-      <c r="J365">
+      <c r="J365" s="28">
         <v>400000</v>
       </c>
       <c r="K365" s="5" t="s">
@@ -35575,7 +35584,7 @@
       <c r="I366" t="s">
         <v>933</v>
       </c>
-      <c r="J366">
+      <c r="J366" s="28">
         <v>2000</v>
       </c>
       <c r="K366" s="5" t="s">
@@ -35655,7 +35664,7 @@
       <c r="I367" t="s">
         <v>933</v>
       </c>
-      <c r="J367">
+      <c r="J367" s="28">
         <v>2000</v>
       </c>
       <c r="K367" s="5" t="s">
@@ -35735,7 +35744,7 @@
       <c r="I368" t="s">
         <v>933</v>
       </c>
-      <c r="J368">
+      <c r="J368" s="28">
         <v>3000</v>
       </c>
       <c r="K368" s="5" t="s">
@@ -35815,7 +35824,7 @@
       <c r="I369" t="s">
         <v>933</v>
       </c>
-      <c r="J369">
+      <c r="J369" s="28">
         <v>2000</v>
       </c>
       <c r="K369" s="5" t="s">
@@ -35895,7 +35904,7 @@
       <c r="I370" t="s">
         <v>1626</v>
       </c>
-      <c r="J370">
+      <c r="J370" s="28">
         <v>3000</v>
       </c>
       <c r="K370" s="5" t="s">
@@ -35979,7 +35988,7 @@
       <c r="I371" t="s">
         <v>1626</v>
       </c>
-      <c r="J371">
+      <c r="J371" s="28">
         <v>3000</v>
       </c>
       <c r="K371" s="5" t="s">
@@ -36063,8 +36072,8 @@
       <c r="I372" t="s">
         <v>933</v>
       </c>
-      <c r="J372">
-        <v>70</v>
+      <c r="J372" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K372" s="5" t="s">
         <v>933</v>
@@ -36143,7 +36152,7 @@
       <c r="I373" t="s">
         <v>933</v>
       </c>
-      <c r="J373">
+      <c r="J373" s="28">
         <v>300</v>
       </c>
       <c r="K373" s="5" t="s">
@@ -36223,7 +36232,7 @@
       <c r="I374" t="s">
         <v>933</v>
       </c>
-      <c r="J374">
+      <c r="J374" s="28">
         <v>300</v>
       </c>
       <c r="K374" s="5" t="s">
@@ -36303,7 +36312,7 @@
       <c r="I375" t="s">
         <v>1626</v>
       </c>
-      <c r="J375">
+      <c r="J375" s="28">
         <v>10000</v>
       </c>
       <c r="K375" s="5" t="s">
@@ -36387,7 +36396,7 @@
       <c r="I376" t="s">
         <v>1626</v>
       </c>
-      <c r="J376">
+      <c r="J376" s="28">
         <v>40000</v>
       </c>
       <c r="K376" s="5" t="s">
@@ -36471,7 +36480,7 @@
       <c r="I377" t="s">
         <v>1626</v>
       </c>
-      <c r="J377">
+      <c r="J377" s="28">
         <v>90000</v>
       </c>
       <c r="K377" s="5" t="s">
@@ -36555,7 +36564,7 @@
       <c r="I378" t="s">
         <v>933</v>
       </c>
-      <c r="J378">
+      <c r="J378" s="28">
         <v>1000</v>
       </c>
       <c r="K378" s="5" t="s">
@@ -36635,7 +36644,7 @@
       <c r="I379" t="s">
         <v>933</v>
       </c>
-      <c r="J379">
+      <c r="J379" s="28">
         <v>7000</v>
       </c>
       <c r="K379" s="5" t="s">
@@ -36715,7 +36724,7 @@
       <c r="I380" t="s">
         <v>1626</v>
       </c>
-      <c r="J380">
+      <c r="J380" s="28">
         <v>10000</v>
       </c>
       <c r="K380" s="5" t="s">
@@ -36799,7 +36808,7 @@
       <c r="I381" t="s">
         <v>1626</v>
       </c>
-      <c r="J381">
+      <c r="J381" s="28">
         <v>20000</v>
       </c>
       <c r="K381" s="5" t="s">
@@ -36883,7 +36892,7 @@
       <c r="I382" t="s">
         <v>933</v>
       </c>
-      <c r="J382">
+      <c r="J382" s="28">
         <v>30000</v>
       </c>
       <c r="K382" s="5" t="s">
@@ -36965,7 +36974,7 @@
       <c r="I383" t="s">
         <v>933</v>
       </c>
-      <c r="J383">
+      <c r="J383" s="28">
         <v>20000</v>
       </c>
       <c r="K383" s="5" t="s">
@@ -37047,7 +37056,7 @@
       <c r="I384" s="7" t="s">
         <v>933</v>
       </c>
-      <c r="J384" s="7">
+      <c r="J384" s="29">
         <v>100000</v>
       </c>
       <c r="K384" s="8" t="s">
@@ -37129,7 +37138,7 @@
       <c r="I385" t="s">
         <v>1626</v>
       </c>
-      <c r="J385">
+      <c r="J385" s="28">
         <v>2000000</v>
       </c>
       <c r="K385" s="5" t="s">
@@ -37213,7 +37222,7 @@
       <c r="I386" t="s">
         <v>933</v>
       </c>
-      <c r="J386">
+      <c r="J386" s="28">
         <v>40000</v>
       </c>
       <c r="K386" s="5" t="s">
@@ -37295,7 +37304,7 @@
       <c r="I387" t="s">
         <v>1626</v>
       </c>
-      <c r="J387">
+      <c r="J387" s="28">
         <v>4000000</v>
       </c>
       <c r="K387" s="5" t="s">
@@ -37379,7 +37388,7 @@
       <c r="I388" t="s">
         <v>933</v>
       </c>
-      <c r="J388">
+      <c r="J388" s="28">
         <v>300</v>
       </c>
       <c r="K388" s="5" t="s">
@@ -37461,7 +37470,7 @@
       <c r="I389" t="s">
         <v>1626</v>
       </c>
-      <c r="J389">
+      <c r="J389" s="28">
         <v>900000</v>
       </c>
       <c r="K389" s="5" t="s">
@@ -37545,7 +37554,7 @@
       <c r="I390" t="s">
         <v>933</v>
       </c>
-      <c r="J390">
+      <c r="J390" s="28">
         <v>5000</v>
       </c>
       <c r="K390" s="5" t="s">
@@ -37627,7 +37636,7 @@
       <c r="I391" t="s">
         <v>933</v>
       </c>
-      <c r="J391">
+      <c r="J391" s="28">
         <v>400000</v>
       </c>
       <c r="K391" s="5" t="s">
@@ -37709,7 +37718,7 @@
       <c r="I392" t="s">
         <v>933</v>
       </c>
-      <c r="J392">
+      <c r="J392" s="28">
         <v>400000</v>
       </c>
       <c r="K392" s="5" t="s">
@@ -37791,7 +37800,7 @@
       <c r="I393" t="s">
         <v>1626</v>
       </c>
-      <c r="J393">
+      <c r="J393" s="28">
         <v>3000000</v>
       </c>
       <c r="K393" s="5" t="s">
@@ -37875,7 +37884,7 @@
       <c r="I394" t="s">
         <v>1626</v>
       </c>
-      <c r="J394">
+      <c r="J394" s="28">
         <v>1000000</v>
       </c>
       <c r="K394" s="5" t="s">
@@ -37959,7 +37968,7 @@
       <c r="I395" t="s">
         <v>1626</v>
       </c>
-      <c r="J395">
+      <c r="J395" s="28">
         <v>4000000</v>
       </c>
       <c r="K395" s="5" t="s">
@@ -38043,7 +38052,7 @@
       <c r="I396" t="s">
         <v>1626</v>
       </c>
-      <c r="J396">
+      <c r="J396" s="28">
         <v>2000000</v>
       </c>
       <c r="K396" s="5" t="s">
@@ -38127,7 +38136,7 @@
       <c r="I397" t="s">
         <v>1626</v>
       </c>
-      <c r="J397">
+      <c r="J397" s="28">
         <v>3000000</v>
       </c>
       <c r="K397" s="5" t="s">
@@ -38211,7 +38220,7 @@
       <c r="I398" t="s">
         <v>1626</v>
       </c>
-      <c r="J398">
+      <c r="J398" s="28">
         <v>900000</v>
       </c>
       <c r="K398" s="5" t="s">
@@ -38295,7 +38304,7 @@
       <c r="I399" t="s">
         <v>1626</v>
       </c>
-      <c r="J399">
+      <c r="J399" s="28">
         <v>80000</v>
       </c>
       <c r="K399" s="5" t="s">
@@ -38379,7 +38388,7 @@
       <c r="I400" t="s">
         <v>1626</v>
       </c>
-      <c r="J400">
+      <c r="J400" s="28">
         <v>80000</v>
       </c>
       <c r="K400" s="5" t="s">
@@ -38463,7 +38472,7 @@
       <c r="I401" t="s">
         <v>1626</v>
       </c>
-      <c r="J401">
+      <c r="J401" s="28">
         <v>900000</v>
       </c>
       <c r="K401" s="5" t="s">
@@ -38547,7 +38556,7 @@
       <c r="I402" t="s">
         <v>1626</v>
       </c>
-      <c r="J402">
+      <c r="J402" s="28">
         <v>300000</v>
       </c>
       <c r="K402" s="5" t="s">
@@ -38631,7 +38640,7 @@
       <c r="I403" t="s">
         <v>933</v>
       </c>
-      <c r="J403">
+      <c r="J403" s="28">
         <v>900</v>
       </c>
       <c r="K403" s="5" t="s">
@@ -38713,8 +38722,8 @@
       <c r="I404" t="s">
         <v>933</v>
       </c>
-      <c r="J404">
-        <v>4</v>
+      <c r="J404" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K404" s="5" t="s">
         <v>933</v>
@@ -38795,7 +38804,7 @@
       <c r="I405" t="s">
         <v>933</v>
       </c>
-      <c r="J405">
+      <c r="J405" s="28">
         <v>1000</v>
       </c>
       <c r="K405" s="5" t="s">
@@ -38877,7 +38886,7 @@
       <c r="I406" t="s">
         <v>933</v>
       </c>
-      <c r="J406">
+      <c r="J406" s="28">
         <v>2000</v>
       </c>
       <c r="K406" s="5" t="s">
@@ -38959,7 +38968,7 @@
       <c r="I407" t="s">
         <v>933</v>
       </c>
-      <c r="J407">
+      <c r="J407" s="28">
         <v>200000</v>
       </c>
       <c r="K407" s="5" t="s">
@@ -39041,7 +39050,7 @@
       <c r="I408" t="s">
         <v>1626</v>
       </c>
-      <c r="J408">
+      <c r="J408" s="28">
         <v>700000</v>
       </c>
       <c r="K408" s="5" t="s">
@@ -39125,7 +39134,7 @@
       <c r="I409" t="s">
         <v>933</v>
       </c>
-      <c r="J409">
+      <c r="J409" s="28">
         <v>800000</v>
       </c>
       <c r="K409" s="5" t="s">
@@ -39207,7 +39216,7 @@
       <c r="I410" t="s">
         <v>1626</v>
       </c>
-      <c r="J410">
+      <c r="J410" s="28">
         <v>5000000</v>
       </c>
       <c r="K410" s="5" t="s">
@@ -39291,7 +39300,7 @@
       <c r="I411" t="s">
         <v>933</v>
       </c>
-      <c r="J411">
+      <c r="J411" s="28">
         <v>8000</v>
       </c>
       <c r="K411" s="5" t="s">
@@ -39373,7 +39382,7 @@
       <c r="I412" t="s">
         <v>933</v>
       </c>
-      <c r="J412">
+      <c r="J412" s="28">
         <v>9000</v>
       </c>
       <c r="K412" s="5" t="s">
@@ -39455,7 +39464,7 @@
       <c r="I413" t="s">
         <v>933</v>
       </c>
-      <c r="J413">
+      <c r="J413" s="28">
         <v>40000</v>
       </c>
       <c r="K413" s="5" t="s">
@@ -39537,7 +39546,7 @@
       <c r="I414" t="s">
         <v>933</v>
       </c>
-      <c r="J414">
+      <c r="J414" s="28">
         <v>1000</v>
       </c>
       <c r="K414" s="5" t="s">
@@ -39619,7 +39628,7 @@
       <c r="I415" t="s">
         <v>933</v>
       </c>
-      <c r="J415">
+      <c r="J415" s="28">
         <v>2000</v>
       </c>
       <c r="K415" s="5" t="s">
@@ -39701,7 +39710,7 @@
       <c r="I416" t="s">
         <v>1626</v>
       </c>
-      <c r="J416">
+      <c r="J416" s="28">
         <v>200000</v>
       </c>
       <c r="K416" s="5" t="s">
@@ -39785,7 +39794,7 @@
       <c r="I417" t="s">
         <v>1626</v>
       </c>
-      <c r="J417">
+      <c r="J417" s="28">
         <v>400000</v>
       </c>
       <c r="K417" s="5" t="s">
@@ -39869,7 +39878,7 @@
       <c r="I418" t="s">
         <v>1626</v>
       </c>
-      <c r="J418">
+      <c r="J418" s="28">
         <v>400000</v>
       </c>
       <c r="K418" s="5" t="s">
@@ -39953,7 +39962,7 @@
       <c r="I419" t="s">
         <v>1626</v>
       </c>
-      <c r="J419">
+      <c r="J419" s="28">
         <v>2000000</v>
       </c>
       <c r="K419" s="5" t="s">
@@ -40037,7 +40046,7 @@
       <c r="I420" t="s">
         <v>1626</v>
       </c>
-      <c r="J420">
+      <c r="J420" s="28">
         <v>900000</v>
       </c>
       <c r="K420" s="5" t="s">
@@ -40121,7 +40130,7 @@
       <c r="I421" t="s">
         <v>1626</v>
       </c>
-      <c r="J421">
+      <c r="J421" s="28">
         <v>500000</v>
       </c>
       <c r="K421" s="5" t="s">
@@ -40205,7 +40214,7 @@
       <c r="I422" t="s">
         <v>1626</v>
       </c>
-      <c r="J422">
+      <c r="J422" s="28">
         <v>100000</v>
       </c>
       <c r="K422" s="5" t="s">
@@ -40289,7 +40298,7 @@
       <c r="I423" t="s">
         <v>1626</v>
       </c>
-      <c r="J423">
+      <c r="J423" s="28">
         <v>30000</v>
       </c>
       <c r="K423" s="5" t="s">
@@ -40373,7 +40382,7 @@
       <c r="I424" t="s">
         <v>1626</v>
       </c>
-      <c r="J424">
+      <c r="J424" s="28">
         <v>1000000</v>
       </c>
       <c r="K424" s="5" t="s">
@@ -40457,7 +40466,7 @@
       <c r="I425" t="s">
         <v>1626</v>
       </c>
-      <c r="J425">
+      <c r="J425" s="28">
         <v>40000</v>
       </c>
       <c r="K425" s="5" t="s">
@@ -40541,7 +40550,7 @@
       <c r="I426" t="s">
         <v>933</v>
       </c>
-      <c r="J426">
+      <c r="J426" s="28">
         <v>1000</v>
       </c>
       <c r="K426" s="5" t="s">
@@ -40623,7 +40632,7 @@
       <c r="I427" t="s">
         <v>1626</v>
       </c>
-      <c r="J427">
+      <c r="J427" s="28">
         <v>3000000</v>
       </c>
       <c r="K427" s="5" t="s">
@@ -40707,7 +40716,7 @@
       <c r="I428" t="s">
         <v>1626</v>
       </c>
-      <c r="J428">
+      <c r="J428" s="28">
         <v>100000</v>
       </c>
       <c r="K428" s="5" t="s">
@@ -40791,7 +40800,7 @@
       <c r="I429" t="s">
         <v>1626</v>
       </c>
-      <c r="J429">
+      <c r="J429" s="28">
         <v>3000000</v>
       </c>
       <c r="K429" s="5" t="s">
@@ -40875,7 +40884,7 @@
       <c r="I430" t="s">
         <v>1626</v>
       </c>
-      <c r="J430">
+      <c r="J430" s="28">
         <v>100000</v>
       </c>
       <c r="K430" s="5" t="s">
@@ -40959,7 +40968,7 @@
       <c r="I431" t="s">
         <v>933</v>
       </c>
-      <c r="J431">
+      <c r="J431" s="28">
         <v>2000</v>
       </c>
       <c r="K431" s="5" t="s">
@@ -41041,8 +41050,8 @@
       <c r="I432" t="s">
         <v>933</v>
       </c>
-      <c r="J432">
-        <v>2</v>
+      <c r="J432" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K432" s="5" t="s">
         <v>933</v>
@@ -41123,8 +41132,8 @@
       <c r="I433" t="s">
         <v>933</v>
       </c>
-      <c r="J433">
-        <v>6</v>
+      <c r="J433" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K433" s="5" t="s">
         <v>933</v>
@@ -41205,7 +41214,7 @@
       <c r="I434" t="s">
         <v>1626</v>
       </c>
-      <c r="J434">
+      <c r="J434" s="28">
         <v>600000</v>
       </c>
       <c r="K434" s="5" t="s">
@@ -41289,7 +41298,7 @@
       <c r="I435" t="s">
         <v>1626</v>
       </c>
-      <c r="J435">
+      <c r="J435" s="28">
         <v>900000</v>
       </c>
       <c r="K435" s="5" t="s">
@@ -41373,7 +41382,7 @@
       <c r="I436" t="s">
         <v>933</v>
       </c>
-      <c r="J436">
+      <c r="J436" s="28">
         <v>20000</v>
       </c>
       <c r="K436" s="5" t="s">
@@ -41455,7 +41464,7 @@
       <c r="I437" t="s">
         <v>933</v>
       </c>
-      <c r="J437">
+      <c r="J437" s="28">
         <v>20000</v>
       </c>
       <c r="K437" s="5" t="s">
@@ -41537,7 +41546,7 @@
       <c r="I438" t="s">
         <v>933</v>
       </c>
-      <c r="J438">
+      <c r="J438" s="28">
         <v>20000</v>
       </c>
       <c r="K438" s="5" t="s">
@@ -41619,7 +41628,7 @@
       <c r="I439" t="s">
         <v>1626</v>
       </c>
-      <c r="J439">
+      <c r="J439" s="28">
         <v>1000000</v>
       </c>
       <c r="K439" s="5" t="s">
@@ -41703,7 +41712,7 @@
       <c r="I440" t="s">
         <v>933</v>
       </c>
-      <c r="J440">
+      <c r="J440" s="28">
         <v>6000</v>
       </c>
       <c r="K440" s="5" t="s">
@@ -41785,7 +41794,7 @@
       <c r="I441" t="s">
         <v>1626</v>
       </c>
-      <c r="J441">
+      <c r="J441" s="28">
         <v>3000000</v>
       </c>
       <c r="K441" s="5" t="s">
@@ -41869,7 +41878,7 @@
       <c r="I442" t="s">
         <v>1626</v>
       </c>
-      <c r="J442">
+      <c r="J442" s="28">
         <v>500000</v>
       </c>
       <c r="K442" s="5" t="s">
@@ -41953,8 +41962,8 @@
       <c r="I443" t="s">
         <v>933</v>
       </c>
-      <c r="J443">
-        <v>100</v>
+      <c r="J443" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K443" s="5" t="s">
         <v>933</v>
@@ -42035,7 +42044,7 @@
       <c r="I444" t="s">
         <v>933</v>
       </c>
-      <c r="J444">
+      <c r="J444" s="28">
         <v>50000</v>
       </c>
       <c r="K444" s="5" t="s">
@@ -42117,7 +42126,7 @@
       <c r="I445" t="s">
         <v>933</v>
       </c>
-      <c r="J445">
+      <c r="J445" s="28">
         <v>30000</v>
       </c>
       <c r="K445" s="5" t="s">
@@ -42199,7 +42208,7 @@
       <c r="I446" t="s">
         <v>1626</v>
       </c>
-      <c r="J446">
+      <c r="J446" s="28">
         <v>1000000</v>
       </c>
       <c r="K446" s="5" t="s">
@@ -42283,7 +42292,7 @@
       <c r="I447" t="s">
         <v>1626</v>
       </c>
-      <c r="J447">
+      <c r="J447" s="28">
         <v>70000</v>
       </c>
       <c r="K447" s="5" t="s">
@@ -42367,8 +42376,8 @@
       <c r="I448" t="s">
         <v>933</v>
       </c>
-      <c r="J448">
-        <v>1</v>
+      <c r="J448" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K448" s="5" t="s">
         <v>933</v>
@@ -42449,8 +42458,8 @@
       <c r="I449" t="s">
         <v>933</v>
       </c>
-      <c r="J449">
-        <v>6</v>
+      <c r="J449" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K449" s="5" t="s">
         <v>933</v>
@@ -42531,7 +42540,7 @@
       <c r="I450" t="s">
         <v>933</v>
       </c>
-      <c r="J450">
+      <c r="J450" s="28">
         <v>2000</v>
       </c>
       <c r="K450" s="5" t="s">
@@ -42613,7 +42622,7 @@
       <c r="I451" t="s">
         <v>933</v>
       </c>
-      <c r="J451">
+      <c r="J451" s="28">
         <v>2000</v>
       </c>
       <c r="K451" s="5" t="s">
@@ -42695,7 +42704,7 @@
       <c r="I452" t="s">
         <v>1626</v>
       </c>
-      <c r="J452">
+      <c r="J452" s="28">
         <v>70000</v>
       </c>
       <c r="K452" s="5" t="s">
@@ -42779,7 +42788,7 @@
       <c r="I453" t="s">
         <v>933</v>
       </c>
-      <c r="J453">
+      <c r="J453" s="28">
         <v>50000</v>
       </c>
       <c r="K453" s="5" t="s">
@@ -42861,7 +42870,7 @@
       <c r="I454" t="s">
         <v>933</v>
       </c>
-      <c r="J454">
+      <c r="J454" s="28">
         <v>60000</v>
       </c>
       <c r="K454" s="5" t="s">
@@ -42943,7 +42952,7 @@
       <c r="I455" s="7" t="s">
         <v>933</v>
       </c>
-      <c r="J455" s="7">
+      <c r="J455" s="29">
         <v>10000</v>
       </c>
       <c r="K455" s="8" t="s">
@@ -43025,7 +43034,7 @@
       <c r="I456" t="s">
         <v>933</v>
       </c>
-      <c r="J456">
+      <c r="J456" s="28">
         <v>1000</v>
       </c>
       <c r="K456" s="5" t="s">
@@ -43107,7 +43116,7 @@
       <c r="I457" t="s">
         <v>933</v>
       </c>
-      <c r="J457">
+      <c r="J457" s="28">
         <v>800</v>
       </c>
       <c r="K457" s="5" t="s">
@@ -43189,7 +43198,7 @@
       <c r="I458" t="s">
         <v>933</v>
       </c>
-      <c r="J458">
+      <c r="J458" s="28">
         <v>800000</v>
       </c>
       <c r="K458" s="5" t="s">
@@ -43271,7 +43280,7 @@
       <c r="I459" t="s">
         <v>933</v>
       </c>
-      <c r="J459">
+      <c r="J459" s="28">
         <v>600000</v>
       </c>
       <c r="K459" s="5" t="s">
@@ -43353,8 +43362,8 @@
       <c r="I460" t="s">
         <v>933</v>
       </c>
-      <c r="J460">
-        <v>100</v>
+      <c r="J460" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="K460" s="5" t="s">
         <v>933</v>
@@ -43412,7 +43421,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="24" t="s">
-        <v>1655</v>
+        <v>1660</v>
       </c>
       <c r="C461" s="24"/>
       <c r="D461" s="24"/>
